--- a/SBTF_data/ml4rt_output/trained_models/superseded/m3/error_estimates.xlsx
+++ b/SBTF_data/ml4rt_output/trained_models/superseded/m3/error_estimates.xlsx
@@ -528,10 +528,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E2" t="n">
-        <v>422926.9755497259</v>
+        <v>422931.8755499101</v>
       </c>
       <c r="F2" t="n">
-        <v>7575717.802351143</v>
+        <v>7575771.345438314</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -551,13 +551,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L2" t="n">
-        <v>-203.3457244976889</v>
+        <v>-198.4457243134966</v>
       </c>
       <c r="M2" t="n">
-        <v>-142.2804003600031</v>
+        <v>-88.73731318954378</v>
       </c>
       <c r="N2" t="n">
-        <v>248.1797654888343</v>
+        <v>217.3821893587593</v>
       </c>
       <c r="O2" t="n">
         <v>261.8899907927122</v>
@@ -577,10 +577,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E3" t="n">
-        <v>423011.6151544317</v>
+        <v>422984.72511145</v>
       </c>
       <c r="F3" t="n">
-        <v>7575721.586727147</v>
+        <v>7575764.195756564</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -600,13 +600,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.7061197918956</v>
+        <v>-145.5961627736688</v>
       </c>
       <c r="M3" t="n">
-        <v>-138.4960243562236</v>
+        <v>-95.88699493929744</v>
       </c>
       <c r="N3" t="n">
-        <v>182.4069396665806</v>
+        <v>174.3346162209488</v>
       </c>
       <c r="O3" t="n">
         <v>261.8899907927122</v>
@@ -626,10 +626,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E4" t="n">
-        <v>427188.280933066</v>
+        <v>427197.4573510846</v>
       </c>
       <c r="F4" t="n">
-        <v>7565611.476052946</v>
+        <v>7565650.252126398</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -649,13 +649,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L4" t="n">
-        <v>-133.1811491668341</v>
+        <v>-124.0047311481903</v>
       </c>
       <c r="M4" t="n">
-        <v>-101.9166623260826</v>
+        <v>-63.14058887399733</v>
       </c>
       <c r="N4" t="n">
-        <v>167.702786360535</v>
+        <v>139.1542572488895</v>
       </c>
       <c r="O4" t="n">
         <v>208.0969103936671</v>
@@ -675,10 +675,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E5" t="n">
-        <v>427095.0743988519</v>
+        <v>427144.8569404663</v>
       </c>
       <c r="F5" t="n">
-        <v>7565615.756703847</v>
+        <v>7565656.953335091</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -698,13 +698,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L5" t="n">
-        <v>-226.387683380919</v>
+        <v>-176.605141766544</v>
       </c>
       <c r="M5" t="n">
-        <v>-97.63601142540574</v>
+        <v>-56.43938018102199</v>
       </c>
       <c r="N5" t="n">
-        <v>246.5444664023941</v>
+        <v>185.404368162131</v>
       </c>
       <c r="O5" t="n">
         <v>208.0969103936671</v>
@@ -724,10 +724,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E6" t="n">
-        <v>427245.0973832852</v>
+        <v>427211.2248882465</v>
       </c>
       <c r="F6" t="n">
-        <v>7565598.191206616</v>
+        <v>7565651.096145578</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -747,13 +747,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L6" t="n">
-        <v>-76.36469894758193</v>
+        <v>-110.2371939863078</v>
       </c>
       <c r="M6" t="n">
-        <v>-115.2015086561441</v>
+        <v>-62.29656969476491</v>
       </c>
       <c r="N6" t="n">
-        <v>138.213439440622</v>
+        <v>126.6218841026683</v>
       </c>
       <c r="O6" t="n">
         <v>208.0969103936671</v>
@@ -773,10 +773,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E7" t="n">
-        <v>427214.3770737774</v>
+        <v>427206.9685062334</v>
       </c>
       <c r="F7" t="n">
-        <v>7565607.094347897</v>
+        <v>7565653.933628805</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -796,13 +796,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L7" t="n">
-        <v>-107.0850084554404</v>
+        <v>-114.4935759994551</v>
       </c>
       <c r="M7" t="n">
-        <v>-106.298367375508</v>
+        <v>-59.45908646751195</v>
       </c>
       <c r="N7" t="n">
-        <v>150.885857331296</v>
+        <v>129.0122548779536</v>
       </c>
       <c r="O7" t="n">
         <v>208.0969103936671</v>
@@ -822,10 +822,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E8" t="n">
-        <v>427368.8073896805</v>
+        <v>427336.9619215187</v>
       </c>
       <c r="F8" t="n">
-        <v>7565588.193873917</v>
+        <v>7565628.567995633</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L8" t="n">
-        <v>47.34530744765652</v>
+        <v>15.49983928585425</v>
       </c>
       <c r="M8" t="n">
-        <v>-125.198841355741</v>
+        <v>-84.82471963949502</v>
       </c>
       <c r="N8" t="n">
-        <v>133.8518883472816</v>
+        <v>86.22921824884094</v>
       </c>
       <c r="O8" t="n">
         <v>208.0969103936671</v>
@@ -871,10 +871,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E9" t="n">
-        <v>427155.4201050044</v>
+        <v>427178.4779793848</v>
       </c>
       <c r="F9" t="n">
-        <v>7565619.865136016</v>
+        <v>7565663.972514159</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -894,13 +894,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L9" t="n">
-        <v>-166.0419772284222</v>
+        <v>-142.9841028479859</v>
       </c>
       <c r="M9" t="n">
-        <v>-93.52757925633341</v>
+        <v>-49.42020111344755</v>
       </c>
       <c r="N9" t="n">
-        <v>190.5711055839095</v>
+        <v>151.2838720595722</v>
       </c>
       <c r="O9" t="n">
         <v>208.0969103936671</v>
@@ -920,10 +920,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E10" t="n">
-        <v>427647.2569839799</v>
+        <v>427618.2071744007</v>
       </c>
       <c r="F10" t="n">
-        <v>7565487.346001268</v>
+        <v>7565493.42159443</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -943,13 +943,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L10" t="n">
-        <v>271.2996765478747</v>
+        <v>242.2498669686611</v>
       </c>
       <c r="M10" t="n">
-        <v>-316.8457644078881</v>
+        <v>-310.7701712464914</v>
       </c>
       <c r="N10" t="n">
-        <v>417.1267827869607</v>
+        <v>394.0343860412535</v>
       </c>
       <c r="O10" t="n">
         <v>726.3905669176061</v>
@@ -969,10 +969,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E11" t="n">
-        <v>427647.8433347772</v>
+        <v>427615.0877775924</v>
       </c>
       <c r="F11" t="n">
-        <v>7565475.391007423</v>
+        <v>7565490.05597427</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L11" t="n">
-        <v>271.8860273451428</v>
+        <v>239.1304701603949</v>
       </c>
       <c r="M11" t="n">
-        <v>-328.8007582528517</v>
+        <v>-314.1357914060354</v>
       </c>
       <c r="N11" t="n">
-        <v>426.6520250662991</v>
+        <v>394.7970075892517</v>
       </c>
       <c r="O11" t="n">
         <v>726.3905669176061</v>
@@ -1018,10 +1018,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E12" t="n">
-        <v>427198.1672068721</v>
+        <v>427214.8010720999</v>
       </c>
       <c r="F12" t="n">
-        <v>7565625.101497068</v>
+        <v>7565669.834644062</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1041,13 +1041,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L12" t="n">
-        <v>-84.6628475987236</v>
+        <v>-68.02898237091722</v>
       </c>
       <c r="M12" t="n">
-        <v>107.2626823345199</v>
+        <v>151.9958293279633</v>
       </c>
       <c r="N12" t="n">
-        <v>136.6494814667104</v>
+        <v>166.5252971038272</v>
       </c>
       <c r="O12" t="n">
         <v>92.89570646527693</v>
@@ -1067,10 +1067,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E13" t="n">
-        <v>427288.1727173789</v>
+        <v>427284.9119259764</v>
       </c>
       <c r="F13" t="n">
-        <v>7565553.144547888</v>
+        <v>7565576.750269972</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L13" t="n">
-        <v>5.342662908136845</v>
+        <v>2.081871505593881</v>
       </c>
       <c r="M13" t="n">
-        <v>35.30573315452784</v>
+        <v>58.91145523823798</v>
       </c>
       <c r="N13" t="n">
-        <v>35.70768601476029</v>
+        <v>58.94822938182894</v>
       </c>
       <c r="O13" t="n">
         <v>92.89570646527693</v>
@@ -1116,10 +1116,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E14" t="n">
-        <v>436725.1208914614</v>
+        <v>436700.0666609864</v>
       </c>
       <c r="F14" t="n">
-        <v>7550991.564675872</v>
+        <v>7551005.032553597</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1139,13 +1139,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L14" t="n">
-        <v>-113.7162027560407</v>
+        <v>-138.7704332310241</v>
       </c>
       <c r="M14" t="n">
-        <v>-40.7988636540249</v>
+        <v>-27.33098592888564</v>
       </c>
       <c r="N14" t="n">
-        <v>120.8135838584084</v>
+        <v>141.436261018775</v>
       </c>
       <c r="O14" t="n">
         <v>333.0864405745596</v>
@@ -1165,10 +1165,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E15" t="n">
-        <v>436591.0882236745</v>
+        <v>436670.9975288403</v>
       </c>
       <c r="F15" t="n">
-        <v>7550981.67843068</v>
+        <v>7551025.699052187</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1188,13 +1188,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L15" t="n">
-        <v>-247.7488705429714</v>
+        <v>-167.8395653771586</v>
       </c>
       <c r="M15" t="n">
-        <v>-50.68510884605348</v>
+        <v>-6.664487339556217</v>
       </c>
       <c r="N15" t="n">
-        <v>252.8803731293797</v>
+        <v>167.9718282852592</v>
       </c>
       <c r="O15" t="n">
         <v>333.0864405745596</v>
@@ -1214,10 +1214,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E16" t="n">
-        <v>436704.2549064638</v>
+        <v>436698.389058879</v>
       </c>
       <c r="F16" t="n">
-        <v>7550888.488534627</v>
+        <v>7550886.982783752</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L16" t="n">
-        <v>-134.5821877535782</v>
+        <v>-140.4480353384279</v>
       </c>
       <c r="M16" t="n">
-        <v>-143.8750048987567</v>
+        <v>-145.3807557737455</v>
       </c>
       <c r="N16" t="n">
-        <v>197.0085843184419</v>
+        <v>202.1415711321392</v>
       </c>
       <c r="O16" t="n">
         <v>333.0864405745596</v>
@@ -1263,10 +1263,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E17" t="n">
-        <v>436638.1172249782</v>
+        <v>436690.9087630736</v>
       </c>
       <c r="F17" t="n">
-        <v>7550894.400998286</v>
+        <v>7550905.931107599</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1286,13 +1286,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L17" t="n">
-        <v>-200.7198692391976</v>
+        <v>-147.9283311438048</v>
       </c>
       <c r="M17" t="n">
-        <v>-137.9625412402675</v>
+        <v>-126.4324319269508</v>
       </c>
       <c r="N17" t="n">
-        <v>243.5613448248163</v>
+        <v>194.5968935979047</v>
       </c>
       <c r="O17" t="n">
         <v>333.0864405745596</v>
@@ -1312,10 +1312,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E18" t="n">
-        <v>436425.2733780528</v>
+        <v>436694.6264222491</v>
       </c>
       <c r="F18" t="n">
-        <v>7551463.225714532</v>
+        <v>7551540.607152162</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1335,13 +1335,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L18" t="n">
-        <v>-572.3400169807719</v>
+        <v>-302.9869727845071</v>
       </c>
       <c r="M18" t="n">
-        <v>397.4576278310269</v>
+        <v>474.8390654614195</v>
       </c>
       <c r="N18" t="n">
-        <v>696.811065467977</v>
+        <v>563.2701339192358</v>
       </c>
       <c r="O18" t="n">
         <v>288.3670661137583</v>
@@ -1361,10 +1361,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E19" t="n">
-        <v>436426.8666958667</v>
+        <v>436581.6436490994</v>
       </c>
       <c r="F19" t="n">
-        <v>7551494.188310125</v>
+        <v>7551560.518164299</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1384,13 +1384,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L19" t="n">
-        <v>-570.7466991668916</v>
+        <v>-415.9697459341842</v>
       </c>
       <c r="M19" t="n">
-        <v>428.4202234242111</v>
+        <v>494.7500775987282</v>
       </c>
       <c r="N19" t="n">
-        <v>713.6495515648793</v>
+        <v>646.3810554282182</v>
       </c>
       <c r="O19" t="n">
         <v>322.1431880729987</v>
@@ -1410,10 +1410,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E20" t="n">
-        <v>436733.7463312446</v>
+        <v>436691.7048306137</v>
       </c>
       <c r="F20" t="n">
-        <v>7551441.623150444</v>
+        <v>7551512.638599589</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1433,13 +1433,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L20" t="n">
-        <v>-263.8670637889882</v>
+        <v>-305.9085644198931</v>
       </c>
       <c r="M20" t="n">
-        <v>375.855063742958</v>
+        <v>446.8705128887668</v>
       </c>
       <c r="N20" t="n">
-        <v>459.2307222887478</v>
+        <v>541.547140214875</v>
       </c>
       <c r="O20" t="n">
         <v>322.1431880729987</v>
@@ -1459,10 +1459,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E21" t="n">
-        <v>436489.8913893652</v>
+        <v>436602.5300219705</v>
       </c>
       <c r="F21" t="n">
-        <v>7551539.364685216</v>
+        <v>7551609.898464922</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1482,13 +1482,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L21" t="n">
-        <v>-507.7220056683873</v>
+        <v>-395.0833730630693</v>
       </c>
       <c r="M21" t="n">
-        <v>473.596598515287</v>
+        <v>544.1303782211617</v>
       </c>
       <c r="N21" t="n">
-        <v>694.3164791110606</v>
+        <v>672.4349337846725</v>
       </c>
       <c r="O21" t="n">
         <v>322.1431880729987</v>
@@ -1508,10 +1508,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E22" t="n">
-        <v>436893.1154203308</v>
+        <v>436877.3226529145</v>
       </c>
       <c r="F22" t="n">
-        <v>7551789.742824391</v>
+        <v>7551839.651734496</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L22" t="n">
-        <v>-104.4979747027392</v>
+        <v>-120.2907421190757</v>
       </c>
       <c r="M22" t="n">
-        <v>723.9747376898304</v>
+        <v>773.8836477948353</v>
       </c>
       <c r="N22" t="n">
-        <v>731.4774415728984</v>
+        <v>783.1767124754149</v>
       </c>
       <c r="O22" t="n">
         <v>288.3670661137583</v>
@@ -1557,10 +1557,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E23" t="n">
-        <v>436861.4786409032</v>
+        <v>436825.2257225683</v>
       </c>
       <c r="F23" t="n">
-        <v>7551731.744830183</v>
+        <v>7551756.827828271</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1580,13 +1580,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L23" t="n">
-        <v>-136.134754130384</v>
+        <v>-172.3876724652364</v>
       </c>
       <c r="M23" t="n">
-        <v>665.9767434820533</v>
+        <v>691.0597415706143</v>
       </c>
       <c r="N23" t="n">
-        <v>679.7482579169297</v>
+        <v>712.2366713653726</v>
       </c>
       <c r="O23" t="n">
         <v>288.3670661137583</v>
@@ -1606,10 +1606,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E24" t="n">
-        <v>425682.3088271848</v>
+        <v>425391.7593144998</v>
       </c>
       <c r="F24" t="n">
-        <v>7576522.638724848</v>
+        <v>7576573.307726294</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.78158550337</v>
+        <v>766.232072818384</v>
       </c>
       <c r="M24" t="n">
-        <v>-180.8061731876805</v>
+        <v>-130.137171741575</v>
       </c>
       <c r="N24" t="n">
-        <v>1072.137207507411</v>
+        <v>777.204781820373</v>
       </c>
       <c r="O24" t="n">
         <v>429.4856292461126</v>
@@ -1655,10 +1655,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E25" t="n">
-        <v>425419.1877542993</v>
+        <v>425274.0939154734</v>
       </c>
       <c r="F25" t="n">
-        <v>7576545.679527558</v>
+        <v>7576584.384539127</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1678,13 +1678,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L25" t="n">
-        <v>793.6605126178474</v>
+        <v>648.5666737920255</v>
       </c>
       <c r="M25" t="n">
-        <v>-157.7653704769909</v>
+        <v>-119.0603589080274</v>
       </c>
       <c r="N25" t="n">
-        <v>809.1890517120005</v>
+        <v>659.4043519851533</v>
       </c>
       <c r="O25" t="n">
         <v>429.4856292461126</v>
@@ -1704,10 +1704,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E26" t="n">
-        <v>424888.7072470235</v>
+        <v>424904.6840219432</v>
       </c>
       <c r="F26" t="n">
-        <v>7576721.971074056</v>
+        <v>7576813.834486705</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1727,13 +1727,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L26" t="n">
-        <v>386.985046679154</v>
+        <v>402.9618215988739</v>
       </c>
       <c r="M26" t="n">
-        <v>-59.256083605811</v>
+        <v>32.60732904355973</v>
       </c>
       <c r="N26" t="n">
-        <v>391.4954786425584</v>
+        <v>404.2789477250055</v>
       </c>
       <c r="O26" t="n">
         <v>573.7435873526119</v>
@@ -1753,10 +1753,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E27" t="n">
-        <v>425068.5196552862</v>
+        <v>425196.3183273397</v>
       </c>
       <c r="F27" t="n">
-        <v>7576736.243153427</v>
+        <v>7576767.299750801</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L27" t="n">
-        <v>566.7974549419014</v>
+        <v>694.5961269953405</v>
       </c>
       <c r="M27" t="n">
-        <v>-44.98400423489511</v>
+        <v>-13.92740686051548</v>
       </c>
       <c r="N27" t="n">
-        <v>568.5797354510814</v>
+        <v>694.7357427819483</v>
       </c>
       <c r="O27" t="n">
         <v>573.7435873526119</v>
@@ -1802,10 +1802,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E28" t="n">
-        <v>424988.0230747805</v>
+        <v>425103.2216070073</v>
       </c>
       <c r="F28" t="n">
-        <v>7576704.13330698</v>
+        <v>7576741.76057624</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1825,13 +1825,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L28" t="n">
-        <v>486.3008744361578</v>
+        <v>601.4994066629442</v>
       </c>
       <c r="M28" t="n">
-        <v>-77.09385068155825</v>
+        <v>-39.46658142190427</v>
       </c>
       <c r="N28" t="n">
-        <v>492.373844035487</v>
+        <v>602.7927896591048</v>
       </c>
       <c r="O28" t="n">
         <v>573.7435873526119</v>
@@ -1851,10 +1851,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E29" t="n">
-        <v>423062.3993414916</v>
+        <v>423034.0454744542</v>
       </c>
       <c r="F29" t="n">
-        <v>7575716.191177309</v>
+        <v>7575744.207606522</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1874,13 +1874,13 @@
         <v>-86.76123139681295</v>
       </c>
       <c r="L29" t="n">
-        <v>354.7080630044802</v>
+        <v>326.3541959670838</v>
       </c>
       <c r="M29" t="n">
-        <v>9.040112955495715</v>
+        <v>37.0565421693027</v>
       </c>
       <c r="N29" t="n">
-        <v>354.8232427598824</v>
+        <v>328.4512879299867</v>
       </c>
       <c r="O29" t="n">
         <v>455.3864024070871</v>
@@ -1900,10 +1900,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E30" t="n">
-        <v>422601.3673039335</v>
+        <v>422685.0928606966</v>
       </c>
       <c r="F30" t="n">
-        <v>7575800.717771498</v>
+        <v>7575836.877219244</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1923,13 +1923,13 @@
         <v>-214.3762193135917</v>
       </c>
       <c r="L30" t="n">
-        <v>-106.3239745536121</v>
+        <v>-22.5984177904902</v>
       </c>
       <c r="M30" t="n">
-        <v>93.56670714449137</v>
+        <v>129.7261548908427</v>
       </c>
       <c r="N30" t="n">
-        <v>141.6316216483457</v>
+        <v>131.6797772985528</v>
       </c>
       <c r="O30" t="n">
         <v>426.7390258093054</v>
@@ -1949,10 +1949,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E31" t="n">
-        <v>424902.7773148858</v>
+        <v>424828.5952404169</v>
       </c>
       <c r="F31" t="n">
-        <v>7574822.018630729</v>
+        <v>7574828.970724923</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L31" t="n">
-        <v>52.23474006319884</v>
+        <v>-21.94733440561686</v>
       </c>
       <c r="M31" t="n">
-        <v>23.10097738076001</v>
+        <v>30.05307157430798</v>
       </c>
       <c r="N31" t="n">
-        <v>57.11500000364472</v>
+        <v>37.21387642482911</v>
       </c>
       <c r="O31" t="n">
         <v>35.40923253378099</v>
@@ -1998,10 +1998,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E32" t="n">
-        <v>424799.3024811103</v>
+        <v>424838.6708241394</v>
       </c>
       <c r="F32" t="n">
-        <v>7574809.983967074</v>
+        <v>7574801.517532259</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2021,13 +2021,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L32" t="n">
-        <v>-51.24009371222928</v>
+        <v>-11.87175068311626</v>
       </c>
       <c r="M32" t="n">
-        <v>11.06631372589618</v>
+        <v>2.599878910928965</v>
       </c>
       <c r="N32" t="n">
-        <v>52.42146986796533</v>
+        <v>12.15309979526065</v>
       </c>
       <c r="O32" t="n">
         <v>35.40923253378099</v>
@@ -2047,10 +2047,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E33" t="n">
-        <v>424609.9851154205</v>
+        <v>424706.6674648788</v>
       </c>
       <c r="F33" t="n">
-        <v>7574820.741406758</v>
+        <v>7574813.539310683</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L33" t="n">
-        <v>-240.5574594020145</v>
+        <v>-143.8751099437941</v>
       </c>
       <c r="M33" t="n">
-        <v>21.82375341001898</v>
+        <v>14.62165733519942</v>
       </c>
       <c r="N33" t="n">
-        <v>241.5453735571294</v>
+        <v>144.6161820978787</v>
       </c>
       <c r="O33" t="n">
         <v>35.40923253378099</v>
@@ -2096,10 +2096,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E34" t="n">
-        <v>424677.0530566083</v>
+        <v>424755.0144748011</v>
       </c>
       <c r="F34" t="n">
-        <v>7574820.53267852</v>
+        <v>7574810.147337511</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2119,13 +2119,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L34" t="n">
-        <v>-173.48951821425</v>
+        <v>-95.52810002147453</v>
       </c>
       <c r="M34" t="n">
-        <v>21.61502517201006</v>
+        <v>11.22968416288495</v>
       </c>
       <c r="N34" t="n">
-        <v>174.8308389369542</v>
+        <v>96.18588098110341</v>
       </c>
       <c r="O34" t="n">
         <v>35.40923253378099</v>
@@ -2145,10 +2145,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E35" t="n">
-        <v>424640.5797829754</v>
+        <v>424725.2695752896</v>
       </c>
       <c r="F35" t="n">
-        <v>7574812.865671439</v>
+        <v>7574804.018427462</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2168,13 +2168,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L35" t="n">
-        <v>-209.9627918471815</v>
+        <v>-125.2729995329864</v>
       </c>
       <c r="M35" t="n">
-        <v>13.94801809079945</v>
+        <v>5.100774114020169</v>
       </c>
       <c r="N35" t="n">
-        <v>210.4255715661101</v>
+        <v>125.3768013172847</v>
       </c>
       <c r="O35" t="n">
         <v>35.40923253378099</v>
@@ -2194,10 +2194,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E36" t="n">
-        <v>424777.9627486168</v>
+        <v>424764.9973744695</v>
       </c>
       <c r="F36" t="n">
-        <v>7574826.67561693</v>
+        <v>7574837.628933311</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2217,13 +2217,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L36" t="n">
-        <v>-72.57982620573603</v>
+        <v>-85.54520035302266</v>
       </c>
       <c r="M36" t="n">
-        <v>27.75796358194202</v>
+        <v>38.71127996314317</v>
       </c>
       <c r="N36" t="n">
-        <v>77.70672888670109</v>
+        <v>93.89645626871994</v>
       </c>
       <c r="O36" t="n">
         <v>35.40923253378099</v>
@@ -2243,10 +2243,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E37" t="n">
-        <v>431574.4097184489</v>
+        <v>431661.4052190691</v>
       </c>
       <c r="F37" t="n">
-        <v>7572903.079877714</v>
+        <v>7572945.033689107</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2266,13 +2266,13 @@
         <v>519.6742706485093</v>
       </c>
       <c r="L37" t="n">
-        <v>-621.8333892240771</v>
+        <v>-534.8378886039136</v>
       </c>
       <c r="M37" t="n">
-        <v>-143.6196839343756</v>
+        <v>-101.6658725412562</v>
       </c>
       <c r="N37" t="n">
-        <v>638.2032415832065</v>
+        <v>544.4148388185863</v>
       </c>
       <c r="O37" t="n">
         <v>825.0477664764331</v>
@@ -2292,10 +2292,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E38" t="n">
-        <v>431409.720502376</v>
+        <v>431427.555768165</v>
       </c>
       <c r="F38" t="n">
-        <v>7572667.273374688</v>
+        <v>7572692.570041287</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2315,13 +2315,13 @@
         <v>354.6701769813274</v>
       </c>
       <c r="L38" t="n">
-        <v>-786.5226052969811</v>
+        <v>-768.6873395080329</v>
       </c>
       <c r="M38" t="n">
-        <v>-379.4261869601905</v>
+        <v>-354.1295203613117</v>
       </c>
       <c r="N38" t="n">
-        <v>873.259434529224</v>
+        <v>846.3379603392906</v>
       </c>
       <c r="O38" t="n">
         <v>878.9593237422193</v>
@@ -2341,10 +2341,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E39" t="n">
-        <v>431743.2147203896</v>
+        <v>431702.635485881</v>
       </c>
       <c r="F39" t="n">
-        <v>7572905.631263212</v>
+        <v>7572931.001201414</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>33.49977064784616</v>
       </c>
       <c r="L39" t="n">
-        <v>-453.0283872834407</v>
+        <v>-493.6076217920054</v>
       </c>
       <c r="M39" t="n">
-        <v>-141.06829843577</v>
+        <v>-115.698360234499</v>
       </c>
       <c r="N39" t="n">
-        <v>474.4839138560954</v>
+        <v>506.9857935407178</v>
       </c>
       <c r="O39" t="n">
         <v>655.957721059259</v>
@@ -2390,10 +2390,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E40" t="n">
-        <v>431515.1079377022</v>
+        <v>431410.9090877261</v>
       </c>
       <c r="F40" t="n">
-        <v>7572423.941328931</v>
+        <v>7572466.973378755</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2413,13 +2413,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L40" t="n">
-        <v>-713.0526060702396</v>
+        <v>-817.2514560462441</v>
       </c>
       <c r="M40" t="n">
-        <v>-620.902442288585</v>
+        <v>-577.8703924641013</v>
       </c>
       <c r="N40" t="n">
-        <v>945.4966218149539</v>
+        <v>1000.916646327915</v>
       </c>
       <c r="O40" t="n">
         <v>1256.392743841148</v>
@@ -2439,10 +2439,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E41" t="n">
-        <v>431666.0064603972</v>
+        <v>431513.5222899694</v>
       </c>
       <c r="F41" t="n">
-        <v>7572427.234329743</v>
+        <v>7572472.303470552</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L41" t="n">
-        <v>-562.154083375237</v>
+        <v>-714.6382538030157</v>
       </c>
       <c r="M41" t="n">
-        <v>-617.6094414759427</v>
+        <v>-572.5403006672859</v>
       </c>
       <c r="N41" t="n">
-        <v>835.1398898721571</v>
+        <v>915.7020419802556</v>
       </c>
       <c r="O41" t="n">
         <v>1256.392743841148</v>
@@ -2488,10 +2488,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E42" t="n">
-        <v>431567.3487322781</v>
+        <v>431514.2691552043</v>
       </c>
       <c r="F42" t="n">
-        <v>7572464.864616943</v>
+        <v>7572473.135611663</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2511,13 +2511,13 @@
         <v>513.3995897192508</v>
       </c>
       <c r="L42" t="n">
-        <v>-660.8118114942918</v>
+        <v>-713.8913885680959</v>
       </c>
       <c r="M42" t="n">
-        <v>-579.9791542766616</v>
+        <v>-571.7081595566124</v>
       </c>
       <c r="N42" t="n">
-        <v>879.2315221861867</v>
+        <v>914.5988926164808</v>
       </c>
       <c r="O42" t="n">
         <v>1045.448340050612</v>
@@ -2537,10 +2537,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E43" t="n">
-        <v>431452.0441535855</v>
+        <v>431416.5674107305</v>
       </c>
       <c r="F43" t="n">
-        <v>7572763.59239076</v>
+        <v>7572804.181166509</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -2560,13 +2560,13 @@
         <v>273.8733717191499</v>
       </c>
       <c r="L43" t="n">
-        <v>-776.1163901868858</v>
+        <v>-811.5931330419262</v>
       </c>
       <c r="M43" t="n">
-        <v>-281.2513804594055</v>
+        <v>-240.6626047100872</v>
       </c>
       <c r="N43" t="n">
-        <v>825.505293821332</v>
+        <v>846.523421357409</v>
       </c>
       <c r="O43" t="n">
         <v>960.9726123950555</v>
@@ -2586,10 +2586,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E44" t="n">
-        <v>431896.9424461958</v>
+        <v>431651.6830213861</v>
       </c>
       <c r="F44" t="n">
-        <v>7572757.744066211</v>
+        <v>7572803.579761306</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2609,13 +2609,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L44" t="n">
-        <v>-287.290835002088</v>
+        <v>-532.5502598117455</v>
       </c>
       <c r="M44" t="n">
-        <v>-247.9478042246774</v>
+        <v>-202.1121091302484</v>
       </c>
       <c r="N44" t="n">
-        <v>379.4919465496414</v>
+        <v>569.6131001676797</v>
       </c>
       <c r="O44" t="n">
         <v>908.0533939333675</v>
@@ -2635,10 +2635,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E45" t="n">
-        <v>431920.8002583366</v>
+        <v>431718.0382111384</v>
       </c>
       <c r="F45" t="n">
-        <v>7572693.49472189</v>
+        <v>7572736.026444797</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>313.662485769329</v>
       </c>
       <c r="L45" t="n">
-        <v>-263.4330228611943</v>
+        <v>-466.1950700594462</v>
       </c>
       <c r="M45" t="n">
-        <v>-312.1971485456452</v>
+        <v>-269.6654256386682</v>
       </c>
       <c r="N45" t="n">
-        <v>408.4899228791552</v>
+        <v>538.5696659974604</v>
       </c>
       <c r="O45" t="n">
         <v>852.0503114849387</v>
@@ -2684,10 +2684,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E46" t="n">
-        <v>431471.424492829</v>
+        <v>431424.4548579902</v>
       </c>
       <c r="F46" t="n">
-        <v>7572628.910240883</v>
+        <v>7572644.030003211</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2707,13 +2707,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L46" t="n">
-        <v>-712.8087883688277</v>
+        <v>-759.7784232076374</v>
       </c>
       <c r="M46" t="n">
-        <v>-376.7816295530647</v>
+        <v>-361.6618672255427</v>
       </c>
       <c r="N46" t="n">
-        <v>806.2634588920045</v>
+        <v>841.4645319779971</v>
       </c>
       <c r="O46" t="n">
         <v>908.0533939333675</v>
@@ -2733,10 +2733,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E47" t="n">
-        <v>432787.014200915</v>
+        <v>432094.2975099228</v>
       </c>
       <c r="F47" t="n">
-        <v>7572735.332819137</v>
+        <v>7572772.285485568</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2756,13 +2756,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L47" t="n">
-        <v>602.7809197171591</v>
+        <v>-89.93577127502067</v>
       </c>
       <c r="M47" t="n">
-        <v>-270.3590512992814</v>
+        <v>-233.406384867616</v>
       </c>
       <c r="N47" t="n">
-        <v>660.635189642901</v>
+        <v>250.1339310285642</v>
       </c>
       <c r="O47" t="n">
         <v>908.0533939333675</v>
@@ -2782,10 +2782,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E48" t="n">
-        <v>424595.3010202068</v>
+        <v>424463.9262653705</v>
       </c>
       <c r="F48" t="n">
-        <v>7575526.023474304</v>
+        <v>7575567.574998358</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2805,13 +2805,13 @@
         <v>-108.3453925880603</v>
       </c>
       <c r="L48" t="n">
-        <v>433.6503529091133</v>
+        <v>302.2755980728543</v>
       </c>
       <c r="M48" t="n">
-        <v>141.8277688920498</v>
+        <v>183.3792929463089</v>
       </c>
       <c r="N48" t="n">
-        <v>456.2540351680138</v>
+        <v>353.5512724793816</v>
       </c>
       <c r="O48" t="n">
         <v>226.6139816280848</v>
@@ -2831,10 +2831,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E49" t="n">
-        <v>424621.4889410959</v>
+        <v>424373.8044957003</v>
       </c>
       <c r="F49" t="n">
-        <v>7575615.063515558</v>
+        <v>7575645.148434657</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2854,13 +2854,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L49" t="n">
-        <v>459.8382737982902</v>
+        <v>212.1538284026901</v>
       </c>
       <c r="M49" t="n">
-        <v>230.8678101459518</v>
+        <v>260.9527292447165</v>
       </c>
       <c r="N49" t="n">
-        <v>514.5397786482388</v>
+        <v>336.3117211846539</v>
       </c>
       <c r="O49" t="n">
         <v>555.8419657876722</v>
@@ -2880,10 +2880,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E50" t="n">
-        <v>424487.1925002136</v>
+        <v>424277.5128273959</v>
       </c>
       <c r="F50" t="n">
-        <v>7575644.483381879</v>
+        <v>7575689.48169482</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2903,13 +2903,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L50" t="n">
-        <v>325.5418329159729</v>
+        <v>115.8621600982151</v>
       </c>
       <c r="M50" t="n">
-        <v>260.2876764666289</v>
+        <v>305.2859894083813</v>
       </c>
       <c r="N50" t="n">
-        <v>416.8059014681626</v>
+        <v>326.5326560570607</v>
       </c>
       <c r="O50" t="n">
         <v>555.8419657876722</v>
@@ -2929,10 +2929,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E51" t="n">
-        <v>423793.945400198</v>
+        <v>423684.1653989257</v>
       </c>
       <c r="F51" t="n">
-        <v>7575496.841698337</v>
+        <v>7575526.966727309</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2952,13 +2952,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L51" t="n">
-        <v>-712.1457266397774</v>
+        <v>-821.9257279121084</v>
       </c>
       <c r="M51" t="n">
-        <v>-497.0406182147563</v>
+        <v>-466.9155892431736</v>
       </c>
       <c r="N51" t="n">
-        <v>868.447414715827</v>
+        <v>945.2894105416337</v>
       </c>
       <c r="O51" t="n">
         <v>1188.730698850027</v>
@@ -2978,10 +2978,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E52" t="n">
-        <v>423699.7176534508</v>
+        <v>423652.7074746606</v>
       </c>
       <c r="F52" t="n">
-        <v>7575504.778464289</v>
+        <v>7575519.392357735</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L52" t="n">
-        <v>-806.3734733869787</v>
+        <v>-853.3836521771736</v>
       </c>
       <c r="M52" t="n">
-        <v>-489.1038522627205</v>
+        <v>-474.4899588171393</v>
       </c>
       <c r="N52" t="n">
-        <v>943.1122716200938</v>
+        <v>976.4242821752958</v>
       </c>
       <c r="O52" t="n">
         <v>1188.730698850027</v>
@@ -3027,10 +3027,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E53" t="n">
-        <v>424550.7450414857</v>
+        <v>424288.3852219108</v>
       </c>
       <c r="F53" t="n">
-        <v>7575968.470068444</v>
+        <v>7576026.453359777</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -3050,13 +3050,13 @@
         <v>-111.879338647984</v>
       </c>
       <c r="L53" t="n">
-        <v>44.65391464793356</v>
+        <v>-217.7059049269301</v>
       </c>
       <c r="M53" t="n">
-        <v>-25.41224810760468</v>
+        <v>32.57104322500527</v>
       </c>
       <c r="N53" t="n">
-        <v>51.37854072730553</v>
+        <v>220.1289029110414</v>
       </c>
       <c r="O53" t="n">
         <v>822.2964947218435</v>
@@ -3076,10 +3076,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E54" t="n">
-        <v>424351.7687926816</v>
+        <v>424290.552959704</v>
       </c>
       <c r="F54" t="n">
-        <v>7575740.536566402</v>
+        <v>7575780.84184749</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -3099,13 +3099,13 @@
         <v>216.2474101519212</v>
       </c>
       <c r="L54" t="n">
-        <v>-154.322334156197</v>
+        <v>-215.5381671338109</v>
       </c>
       <c r="M54" t="n">
-        <v>-253.3457501502708</v>
+        <v>-213.0404690625146</v>
       </c>
       <c r="N54" t="n">
-        <v>296.6470157251213</v>
+        <v>303.0560062922015</v>
       </c>
       <c r="O54" t="n">
         <v>418.3284046355066</v>
@@ -3125,10 +3125,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E55" t="n">
-        <v>424595.7759627754</v>
+        <v>424296.8805017221</v>
       </c>
       <c r="F55" t="n">
-        <v>7575760.76230173</v>
+        <v>7575814.538179093</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
@@ -3148,13 +3148,13 @@
         <v>153.3048991076648</v>
       </c>
       <c r="L55" t="n">
-        <v>89.68483593763085</v>
+        <v>-209.2106251156656</v>
       </c>
       <c r="M55" t="n">
-        <v>-233.1200148221105</v>
+        <v>-179.344137459062</v>
       </c>
       <c r="N55" t="n">
-        <v>249.7765223311046</v>
+        <v>275.5601663924278</v>
       </c>
       <c r="O55" t="n">
         <v>809.4826938708336</v>
@@ -3174,10 +3174,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E56" t="n">
-        <v>424737.0419082094</v>
+        <v>424630.1977059093</v>
       </c>
       <c r="F56" t="n">
-        <v>7575771.259367106</v>
+        <v>7575811.843353083</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3197,13 +3197,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L56" t="n">
-        <v>149.4451377268997</v>
+        <v>42.6009354267735</v>
       </c>
       <c r="M56" t="n">
-        <v>-241.9395721405745</v>
+        <v>-201.3555861636996</v>
       </c>
       <c r="N56" t="n">
-        <v>284.3740595725571</v>
+        <v>205.8128076154718</v>
       </c>
       <c r="O56" t="n">
         <v>392.7611216976345</v>
@@ -3223,10 +3223,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E57" t="n">
-        <v>424682.1813080774</v>
+        <v>424545.4086543864</v>
       </c>
       <c r="F57" t="n">
-        <v>7575790.581798801</v>
+        <v>7575815.258604715</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3246,13 +3246,13 @@
         <v>177.9110966470093</v>
       </c>
       <c r="L57" t="n">
-        <v>94.5845375948702</v>
+        <v>-42.18811609613476</v>
       </c>
       <c r="M57" t="n">
-        <v>-222.6171404458582</v>
+        <v>-197.9403345324099</v>
       </c>
       <c r="N57" t="n">
-        <v>241.8772952807402</v>
+        <v>202.3862969040723</v>
       </c>
       <c r="O57" t="n">
         <v>550.3509526026252</v>
@@ -3272,10 +3272,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E58" t="n">
-        <v>424883.9035078139</v>
+        <v>424749.8842340588</v>
       </c>
       <c r="F58" t="n">
-        <v>7575801.848666781</v>
+        <v>7575825.029504485</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3295,13 +3295,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L58" t="n">
-        <v>296.3067373314407</v>
+        <v>162.2874635763001</v>
       </c>
       <c r="M58" t="n">
-        <v>-211.3502724664286</v>
+        <v>-188.1694347616285</v>
       </c>
       <c r="N58" t="n">
-        <v>363.9596409763546</v>
+        <v>248.4853255476864</v>
       </c>
       <c r="O58" t="n">
         <v>392.7611216976345</v>
@@ -3321,10 +3321,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E59" t="n">
-        <v>425010.2892201962</v>
+        <v>424908.9628324367</v>
       </c>
       <c r="F59" t="n">
-        <v>7575783.508133661</v>
+        <v>7575795.606406433</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3344,13 +3344,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L59" t="n">
-        <v>422.6924497137079</v>
+        <v>321.366061954177</v>
       </c>
       <c r="M59" t="n">
-        <v>-229.6908055860549</v>
+        <v>-217.5925328144804</v>
       </c>
       <c r="N59" t="n">
-        <v>481.068366467539</v>
+        <v>388.1013477334968</v>
       </c>
       <c r="O59" t="n">
         <v>476.5339934397911</v>
@@ -3370,10 +3370,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E60" t="n">
-        <v>425375.5087915756</v>
+        <v>425050.0030695781</v>
       </c>
       <c r="F60" t="n">
-        <v>7575685.248727057</v>
+        <v>7575733.749751201</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3393,13 +3393,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L60" t="n">
-        <v>787.9120210930705</v>
+        <v>462.4062990956591</v>
       </c>
       <c r="M60" t="n">
-        <v>-327.9502121899277</v>
+        <v>-279.4491880461574</v>
       </c>
       <c r="N60" t="n">
-        <v>853.4381610042908</v>
+        <v>540.2882879935495</v>
       </c>
       <c r="O60" t="n">
         <v>476.5339934397911</v>
@@ -3419,10 +3419,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E61" t="n">
-        <v>424624.6320654037</v>
+        <v>424528.3887820364</v>
       </c>
       <c r="F61" t="n">
-        <v>7575683.70334933</v>
+        <v>7575770.534432013</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3442,13 +3442,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L61" t="n">
-        <v>37.0352949211956</v>
+        <v>-59.20798844611272</v>
       </c>
       <c r="M61" t="n">
-        <v>-329.4955899165943</v>
+        <v>-242.6645072344691</v>
       </c>
       <c r="N61" t="n">
-        <v>331.570440245183</v>
+        <v>249.7832039332963</v>
       </c>
       <c r="O61" t="n">
         <v>476.5339934397911</v>
@@ -3468,10 +3468,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E62" t="n">
-        <v>427386.9488589745</v>
+        <v>427411.8389378141</v>
       </c>
       <c r="F62" t="n">
-        <v>7565612.853289214</v>
+        <v>7565635.221418798</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3491,13 +3491,13 @@
         <v>-130.0167417659735</v>
       </c>
       <c r="L62" t="n">
-        <v>-131.4295805543079</v>
+        <v>-106.539501714753</v>
       </c>
       <c r="M62" t="n">
-        <v>230.4168843133375</v>
+        <v>252.7850138973445</v>
       </c>
       <c r="N62" t="n">
-        <v>265.2652921536236</v>
+        <v>274.319027186793</v>
       </c>
       <c r="O62" t="n">
         <v>193.1288251706171</v>
@@ -3517,10 +3517,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E63" t="n">
-        <v>427646.1866472814</v>
+        <v>427588.5278341603</v>
       </c>
       <c r="F63" t="n">
-        <v>7565162.349987678</v>
+        <v>7565165.77311378</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3540,13 +3540,13 @@
         <v>-62.16662909928709</v>
       </c>
       <c r="L63" t="n">
-        <v>127.8082077525905</v>
+        <v>70.14939463150222</v>
       </c>
       <c r="M63" t="n">
-        <v>-220.0864172223955</v>
+        <v>-216.6632911209017</v>
       </c>
       <c r="N63" t="n">
-        <v>254.5053418196162</v>
+        <v>227.7365128531366</v>
       </c>
       <c r="O63" t="n">
         <v>99.24455936577476</v>
@@ -3566,10 +3566,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E64" t="n">
-        <v>427683.3207493301</v>
+        <v>427605.8983220787</v>
       </c>
       <c r="F64" t="n">
-        <v>7565360.365841348</v>
+        <v>7565415.693069336</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>204.8038629004732</v>
       </c>
       <c r="L64" t="n">
-        <v>164.9423098012921</v>
+        <v>87.519882549881</v>
       </c>
       <c r="M64" t="n">
-        <v>-22.07056355290115</v>
+        <v>33.25666443537921</v>
       </c>
       <c r="N64" t="n">
-        <v>166.4123653402237</v>
+        <v>93.62550705289868</v>
       </c>
       <c r="O64" t="n">
         <v>304.3215034464807</v>
@@ -3615,10 +3615,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E65" t="n">
-        <v>427733.5008296723</v>
+        <v>427641.9338242903</v>
       </c>
       <c r="F65" t="n">
-        <v>7565498.136517512</v>
+        <v>7565545.207550636</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3638,13 +3638,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L65" t="n">
-        <v>215.1223901435151</v>
+        <v>123.5553847614792</v>
       </c>
       <c r="M65" t="n">
-        <v>115.7001126110554</v>
+        <v>162.771145734936</v>
       </c>
       <c r="N65" t="n">
-        <v>244.2624793112311</v>
+        <v>204.3535636768318</v>
       </c>
       <c r="O65" t="n">
         <v>68.76625058727349</v>
@@ -3664,10 +3664,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E66" t="n">
-        <v>428633.727479093</v>
+        <v>428203.3956227059</v>
       </c>
       <c r="F66" t="n">
-        <v>7565315.19274792</v>
+        <v>7565330.902012762</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3687,13 +3687,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L66" t="n">
-        <v>1115.349039564142</v>
+        <v>685.0171831771149</v>
       </c>
       <c r="M66" t="n">
-        <v>-67.2436569808051</v>
+        <v>-51.53439213894308</v>
       </c>
       <c r="N66" t="n">
-        <v>1117.374238767301</v>
+        <v>686.9529349388059</v>
       </c>
       <c r="O66" t="n">
         <v>68.76625058727349</v>
@@ -3713,10 +3713,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E67" t="n">
-        <v>427987.6847801919</v>
+        <v>427796.3978481662</v>
       </c>
       <c r="F67" t="n">
-        <v>7565510.091276523</v>
+        <v>7565534.869058456</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3736,13 +3736,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L67" t="n">
-        <v>683.5618359860382</v>
+        <v>492.2749039604096</v>
       </c>
       <c r="M67" t="n">
-        <v>43.51661285199225</v>
+        <v>68.29439478553832</v>
       </c>
       <c r="N67" t="n">
-        <v>684.9456031034242</v>
+        <v>496.9896431801708</v>
       </c>
       <c r="O67" t="n">
         <v>73.38924382563867</v>
@@ -3762,10 +3762,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E68" t="n">
-        <v>427337.6742950901</v>
+        <v>427228.0230680651</v>
       </c>
       <c r="F68" t="n">
-        <v>7565490.979325574</v>
+        <v>7565503.58497232</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3785,13 +3785,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L68" t="n">
-        <v>33.55135088431416</v>
+        <v>-76.09987614076817</v>
       </c>
       <c r="M68" t="n">
-        <v>24.40466190315783</v>
+        <v>37.01030864939094</v>
       </c>
       <c r="N68" t="n">
-        <v>41.48831966674249</v>
+        <v>84.62242075811491</v>
       </c>
       <c r="O68" t="n">
         <v>73.38924382563867</v>
@@ -3811,10 +3811,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E69" t="n">
-        <v>427997.9132592799</v>
+        <v>428024.3011143443</v>
       </c>
       <c r="F69" t="n">
-        <v>7565411.531519184</v>
+        <v>7565474.13447431</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3834,13 +3834,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L69" t="n">
-        <v>693.7903150740312</v>
+        <v>720.1781701384461</v>
       </c>
       <c r="M69" t="n">
-        <v>-55.04314448684454</v>
+        <v>7.559810639359057</v>
       </c>
       <c r="N69" t="n">
-        <v>695.970365062711</v>
+        <v>720.2178472385031</v>
       </c>
       <c r="O69" t="n">
         <v>167.7427807882272</v>
@@ -3860,10 +3860,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E70" t="n">
-        <v>427773.4308265501</v>
+        <v>427721.5973988684</v>
       </c>
       <c r="F70" t="n">
-        <v>7565457.115525709</v>
+        <v>7565506.537010047</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3883,13 +3883,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L70" t="n">
-        <v>469.307882344292</v>
+        <v>417.474454662588</v>
       </c>
       <c r="M70" t="n">
-        <v>-9.459137961268425</v>
+        <v>39.96234637591988</v>
       </c>
       <c r="N70" t="n">
-        <v>469.4031995219613</v>
+        <v>419.3827719681559</v>
       </c>
       <c r="O70" t="n">
         <v>167.7427807882272</v>
@@ -3909,10 +3909,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E71" t="n">
-        <v>427601.2865008794</v>
+        <v>427575.5653553653</v>
       </c>
       <c r="F71" t="n">
-        <v>7565664.059225881</v>
+        <v>7565676.140111742</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3932,13 +3932,13 @@
         <v>-45.87848299586525</v>
       </c>
       <c r="L71" t="n">
-        <v>297.163556673564</v>
+        <v>271.4424111595144</v>
       </c>
       <c r="M71" t="n">
-        <v>197.4845622098073</v>
+        <v>209.5654480708763</v>
       </c>
       <c r="N71" t="n">
-        <v>356.8001285398896</v>
+        <v>342.9266096429935</v>
       </c>
       <c r="O71" t="n">
         <v>84.9084633962147</v>
@@ -3958,10 +3958,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E72" t="n">
-        <v>427319.9308132423</v>
+        <v>427409.1247229167</v>
       </c>
       <c r="F72" t="n">
-        <v>7565620.250204386</v>
+        <v>7565676.958416333</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3981,13 +3981,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L72" t="n">
-        <v>15.80786903644912</v>
+        <v>105.0017787108663</v>
       </c>
       <c r="M72" t="n">
-        <v>153.675540715456</v>
+        <v>210.3837526626885</v>
       </c>
       <c r="N72" t="n">
-        <v>154.4864412745057</v>
+        <v>235.1312333929311</v>
       </c>
       <c r="O72" t="n">
         <v>73.38924382563867</v>
@@ -4007,10 +4007,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E73" t="n">
-        <v>427237.7988723326</v>
+        <v>427216.630061138</v>
       </c>
       <c r="F73" t="n">
-        <v>7565475.109990962</v>
+        <v>7565512.904717878</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4030,13 +4030,13 @@
         <v>32.57345400145277</v>
       </c>
       <c r="L73" t="n">
-        <v>-114.2223493828205</v>
+        <v>-135.3911605774774</v>
       </c>
       <c r="M73" t="n">
-        <v>-12.82797653973103</v>
+        <v>24.96675037592649</v>
       </c>
       <c r="N73" t="n">
-        <v>114.9404283993888</v>
+        <v>137.6739081556491</v>
       </c>
       <c r="O73" t="n">
         <v>124.7538495061759</v>
@@ -4056,10 +4056,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E74" t="n">
-        <v>427225.0186673334</v>
+        <v>427275.2849845332</v>
       </c>
       <c r="F74" t="n">
-        <v>7565226.47564245</v>
+        <v>7565232.802249934</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4079,13 +4079,13 @@
         <v>-160.2154044983909</v>
       </c>
       <c r="L74" t="n">
-        <v>-127.0025543820811</v>
+        <v>-76.73623718228191</v>
       </c>
       <c r="M74" t="n">
-        <v>-261.4623250514269</v>
+        <v>-255.1357175679877</v>
       </c>
       <c r="N74" t="n">
-        <v>290.6754138912879</v>
+        <v>266.4257579060768</v>
       </c>
       <c r="O74" t="n">
         <v>192.8530163463931</v>
@@ -4105,10 +4105,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E75" t="n">
-        <v>427117.8858111479</v>
+        <v>427115.3751049614</v>
       </c>
       <c r="F75" t="n">
-        <v>7565654.313564667</v>
+        <v>7565695.037152621</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4128,13 +4128,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L75" t="n">
-        <v>-170.0927079323446</v>
+        <v>-172.603414118872</v>
       </c>
       <c r="M75" t="n">
-        <v>223.3462628899142</v>
+        <v>264.0698508433998</v>
       </c>
       <c r="N75" t="n">
-        <v>280.7402401485198</v>
+        <v>315.4755532366117</v>
       </c>
       <c r="O75" t="n">
         <v>182.1562084009817</v>
@@ -4154,10 +4154,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E76" t="n">
-        <v>427394.0333067433</v>
+        <v>427568.712332265</v>
       </c>
       <c r="F76" t="n">
-        <v>7565701.917581777</v>
+        <v>7565722.121777742</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4177,13 +4177,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L76" t="n">
-        <v>106.0547876630444</v>
+        <v>280.7338131847209</v>
       </c>
       <c r="M76" t="n">
-        <v>270.9502799995244</v>
+        <v>291.1544759646058</v>
       </c>
       <c r="N76" t="n">
-        <v>290.96678885755</v>
+        <v>404.4532145248174</v>
       </c>
       <c r="O76" t="n">
         <v>182.1562084009817</v>
@@ -4203,10 +4203,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E77" t="n">
-        <v>427373.7711537111</v>
+        <v>427328.4495531388</v>
       </c>
       <c r="F77" t="n">
-        <v>7565449.46072446</v>
+        <v>7565501.123149099</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4226,13 +4226,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L77" t="n">
-        <v>85.79263463086681</v>
+        <v>40.47103405854432</v>
       </c>
       <c r="M77" t="n">
-        <v>18.49342268239707</v>
+        <v>70.15584732126445</v>
       </c>
       <c r="N77" t="n">
-        <v>87.76322031133091</v>
+        <v>80.99226821822205</v>
       </c>
       <c r="O77" t="n">
         <v>61.43560594337487</v>
@@ -4252,10 +4252,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E78" t="n">
-        <v>427138.9416844515</v>
+        <v>427165.7013495377</v>
       </c>
       <c r="F78" t="n">
-        <v>7565422.547394909</v>
+        <v>7565446.367395325</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4275,13 +4275,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L78" t="n">
-        <v>-149.0368346287287</v>
+        <v>-122.2771695425618</v>
       </c>
       <c r="M78" t="n">
-        <v>-8.419906868599355</v>
+        <v>15.40009354706854</v>
       </c>
       <c r="N78" t="n">
-        <v>149.2744884694867</v>
+        <v>123.2431299204903</v>
       </c>
       <c r="O78" t="n">
         <v>61.43560594337487</v>
@@ -4301,10 +4301,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E79" t="n">
-        <v>427157.0516691677</v>
+        <v>427343.1964901804</v>
       </c>
       <c r="F79" t="n">
-        <v>7565231.759882406</v>
+        <v>7565221.948649561</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -4324,13 +4324,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L79" t="n">
-        <v>17.49835810891818</v>
+        <v>203.6431791216601</v>
       </c>
       <c r="M79" t="n">
-        <v>69.5797859756276</v>
+        <v>59.76855313032866</v>
       </c>
       <c r="N79" t="n">
-        <v>71.74635288934265</v>
+        <v>212.2329483046151</v>
       </c>
       <c r="O79" t="n">
         <v>422.6547333935085</v>
@@ -4350,10 +4350,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E80" t="n">
-        <v>426900.3011087753</v>
+        <v>427175.4307477993</v>
       </c>
       <c r="F80" t="n">
-        <v>7565244.710792596</v>
+        <v>7565228.233704012</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4373,13 +4373,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L80" t="n">
-        <v>-239.2522022834746</v>
+        <v>35.87743674055673</v>
       </c>
       <c r="M80" t="n">
-        <v>82.53069616574794</v>
+        <v>66.05360758118331</v>
       </c>
       <c r="N80" t="n">
-        <v>253.0868074536791</v>
+        <v>75.16827483427838</v>
       </c>
       <c r="O80" t="n">
         <v>422.6547333935085</v>
@@ -4399,10 +4399,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E81" t="n">
-        <v>427747.1694321096</v>
+        <v>427509.3845097597</v>
       </c>
       <c r="F81" t="n">
-        <v>7565261.349047034</v>
+        <v>7565316.756934743</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -4422,13 +4422,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L81" t="n">
-        <v>607.6161210507853</v>
+        <v>369.8311987009365</v>
       </c>
       <c r="M81" t="n">
-        <v>99.16895060334355</v>
+        <v>154.5768383126706</v>
       </c>
       <c r="N81" t="n">
-        <v>615.655610974651</v>
+        <v>400.835520476059</v>
       </c>
       <c r="O81" t="n">
         <v>422.6547333935085</v>
@@ -4448,10 +4448,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E82" t="n">
-        <v>427210.6452502306</v>
+        <v>427436.5656977238</v>
       </c>
       <c r="F82" t="n">
-        <v>7565302.830842683</v>
+        <v>7565323.824942714</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -4471,13 +4471,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L82" t="n">
-        <v>71.09193917177618</v>
+        <v>297.012386664981</v>
       </c>
       <c r="M82" t="n">
-        <v>140.6507462523878</v>
+        <v>161.6448462828994</v>
       </c>
       <c r="N82" t="n">
-        <v>157.5966250798446</v>
+        <v>338.1499876715218</v>
       </c>
       <c r="O82" t="n">
         <v>422.6547333935085</v>
@@ -4497,10 +4497,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E83" t="n">
-        <v>427697.5673857664</v>
+        <v>427622.7523585538</v>
       </c>
       <c r="F83" t="n">
-        <v>7565175.272413678</v>
+        <v>7565240.023307566</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -4520,13 +4520,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L83" t="n">
-        <v>558.0140747076366</v>
+        <v>483.1990474949707</v>
       </c>
       <c r="M83" t="n">
-        <v>13.09231724683195</v>
+        <v>77.84321113489568</v>
       </c>
       <c r="N83" t="n">
-        <v>558.1676417911661</v>
+        <v>489.429141980572</v>
       </c>
       <c r="O83" t="n">
         <v>422.6547333935085</v>
@@ -4546,10 +4546,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E84" t="n">
-        <v>421092.5636024024</v>
+        <v>421074.9347946177</v>
       </c>
       <c r="F84" t="n">
-        <v>7573949.054057544</v>
+        <v>7573970.871504492</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4569,13 +4569,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L84" t="n">
-        <v>-247.1053550015786</v>
+        <v>-264.734162786277</v>
       </c>
       <c r="M84" t="n">
-        <v>-29.17613544873893</v>
+        <v>-7.358688500709832</v>
       </c>
       <c r="N84" t="n">
-        <v>248.8218305337764</v>
+        <v>264.8364160054306</v>
       </c>
       <c r="O84" t="n">
         <v>210.1155508096735</v>
@@ -4595,10 +4595,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E85" t="n">
-        <v>421454.4931440096</v>
+        <v>421238.162956043</v>
       </c>
       <c r="F85" t="n">
-        <v>7574008.425346199</v>
+        <v>7574067.123303352</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4618,13 +4618,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L85" t="n">
-        <v>114.824186605576</v>
+        <v>-101.5060013609473</v>
       </c>
       <c r="M85" t="n">
-        <v>30.19515320658684</v>
+        <v>88.89311035908759</v>
       </c>
       <c r="N85" t="n">
-        <v>118.7280131510731</v>
+        <v>134.9275856954446</v>
       </c>
       <c r="O85" t="n">
         <v>210.1155508096735</v>
@@ -4644,10 +4644,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E86" t="n">
-        <v>421755.0146472921</v>
+        <v>421585.4570450503</v>
       </c>
       <c r="F86" t="n">
-        <v>7574095.441671244</v>
+        <v>7574152.091029346</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4667,13 +4667,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L86" t="n">
-        <v>415.3456898881122</v>
+        <v>245.7880876463605</v>
       </c>
       <c r="M86" t="n">
-        <v>117.2114782510325</v>
+        <v>173.860836353153</v>
       </c>
       <c r="N86" t="n">
-        <v>431.5675761018478</v>
+        <v>301.0637381789325</v>
       </c>
       <c r="O86" t="n">
         <v>210.1155508096735</v>
@@ -4693,10 +4693,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E87" t="n">
-        <v>421392.6921709293</v>
+        <v>421299.7279846742</v>
       </c>
       <c r="F87" t="n">
-        <v>7574058.664455392</v>
+        <v>7574120.57368845</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4716,13 +4716,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L87" t="n">
-        <v>53.02321352530271</v>
+        <v>-39.9409727298189</v>
       </c>
       <c r="M87" t="n">
-        <v>80.4342623995617</v>
+        <v>142.3434954574332</v>
       </c>
       <c r="N87" t="n">
-        <v>96.33863057108186</v>
+        <v>147.8409686171071</v>
       </c>
       <c r="O87" t="n">
         <v>210.1155508096735</v>
@@ -4742,10 +4742,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E88" t="n">
-        <v>422012.3245133131</v>
+        <v>421729.0675229943</v>
       </c>
       <c r="F88" t="n">
-        <v>7574092.657030484</v>
+        <v>7574153.021153309</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4765,13 +4765,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L88" t="n">
-        <v>672.6555559090921</v>
+        <v>389.3985655903234</v>
       </c>
       <c r="M88" t="n">
-        <v>114.4268374908715</v>
+        <v>174.7909603165463</v>
       </c>
       <c r="N88" t="n">
-        <v>682.3188389847755</v>
+        <v>426.8291493000236</v>
       </c>
       <c r="O88" t="n">
         <v>210.1155508096735</v>
@@ -4791,10 +4791,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E89" t="n">
-        <v>421107.2808682372</v>
+        <v>421049.7739875894</v>
       </c>
       <c r="F89" t="n">
-        <v>7574003.567887107</v>
+        <v>7574048.395169582</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4814,13 +4814,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L89" t="n">
-        <v>-232.3880891667795</v>
+        <v>-289.8949698145734</v>
       </c>
       <c r="M89" t="n">
-        <v>25.33769411407411</v>
+        <v>70.16497658938169</v>
       </c>
       <c r="N89" t="n">
-        <v>233.7653154974139</v>
+        <v>298.2653474066018</v>
       </c>
       <c r="O89" t="n">
         <v>210.1155508096735</v>
@@ -4840,10 +4840,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E90" t="n">
-        <v>424874.5620974596</v>
+        <v>424875.367697434</v>
       </c>
       <c r="F90" t="n">
-        <v>7576844.175208365</v>
+        <v>7576904.913148816</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L90" t="n">
-        <v>-72.54402809828753</v>
+        <v>-71.73842812393559</v>
       </c>
       <c r="M90" t="n">
-        <v>-27.72119205258787</v>
+        <v>33.0167483985424</v>
       </c>
       <c r="N90" t="n">
-        <v>77.66016032394982</v>
+        <v>78.97156288503935</v>
       </c>
       <c r="O90" t="n">
         <v>461.3656302132206</v>
@@ -4889,10 +4889,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E91" t="n">
-        <v>425032.652024419</v>
+        <v>425171.4998157436</v>
       </c>
       <c r="F91" t="n">
-        <v>7576818.406714286</v>
+        <v>7576834.252755363</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4912,13 +4912,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L91" t="n">
-        <v>85.54589886107715</v>
+        <v>224.3936901856796</v>
       </c>
       <c r="M91" t="n">
-        <v>-53.48968613147736</v>
+        <v>-37.64364505372941</v>
       </c>
       <c r="N91" t="n">
-        <v>100.8922560675179</v>
+        <v>227.5292776942737</v>
       </c>
       <c r="O91" t="n">
         <v>461.3656302132206</v>
@@ -4938,10 +4938,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E92" t="n">
-        <v>424468.5266578213</v>
+        <v>424424.8677376944</v>
       </c>
       <c r="F92" t="n">
-        <v>7576064.305371942</v>
+        <v>7576125.994478926</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -4961,13 +4961,13 @@
         <v>704.1788030171767</v>
       </c>
       <c r="L92" t="n">
-        <v>-478.5794677365921</v>
+        <v>-522.2383878635592</v>
       </c>
       <c r="M92" t="n">
-        <v>-807.5910284752026</v>
+        <v>-745.9019214911386</v>
       </c>
       <c r="N92" t="n">
-        <v>938.7446810569289</v>
+        <v>910.5507181055331</v>
       </c>
       <c r="O92" t="n">
         <v>926.5222753325139</v>
@@ -4987,10 +4987,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E93" t="n">
-        <v>425187.2988105252</v>
+        <v>425148.6138623034</v>
       </c>
       <c r="F93" t="n">
-        <v>7576179.819915689</v>
+        <v>7576253.957470021</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5010,13 +5010,13 @@
         <v>693.6228237506002</v>
       </c>
       <c r="L93" t="n">
-        <v>240.1926849672454</v>
+        <v>201.5077367454651</v>
       </c>
       <c r="M93" t="n">
-        <v>-692.0764847286046</v>
+        <v>-617.9389303959906</v>
       </c>
       <c r="N93" t="n">
-        <v>732.5724446265207</v>
+        <v>649.9645295454364</v>
       </c>
       <c r="O93" t="n">
         <v>695.4513517348389</v>
@@ -5036,10 +5036,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E94" t="n">
-        <v>427788.7614196657</v>
+        <v>427620.2428883924</v>
       </c>
       <c r="F94" t="n">
-        <v>7565150.044586128</v>
+        <v>7565192.433715736</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5059,13 +5059,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L94" t="n">
-        <v>347.631651535572</v>
+        <v>179.1131202622782</v>
       </c>
       <c r="M94" t="n">
-        <v>364.3857442075387</v>
+        <v>406.7748738164082</v>
       </c>
       <c r="N94" t="n">
-        <v>503.6116914161457</v>
+        <v>444.4629431329953</v>
       </c>
       <c r="O94" t="n">
         <v>643.6314367787569</v>
@@ -5085,10 +5085,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E95" t="n">
-        <v>428131.5528521584</v>
+        <v>427931.9261125877</v>
       </c>
       <c r="F95" t="n">
-        <v>7565174.287546203</v>
+        <v>7565216.086618391</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -5108,13 +5108,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L95" t="n">
-        <v>690.4230840282398</v>
+        <v>490.7963444575435</v>
       </c>
       <c r="M95" t="n">
-        <v>388.6287042824551</v>
+        <v>430.4277764707804</v>
       </c>
       <c r="N95" t="n">
-        <v>792.2854944723688</v>
+        <v>652.8009822989452</v>
       </c>
       <c r="O95" t="n">
         <v>643.6314367787569</v>
@@ -5134,10 +5134,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E96" t="n">
-        <v>428149.7123857973</v>
+        <v>427869.725946076</v>
       </c>
       <c r="F96" t="n">
-        <v>7565134.148114883</v>
+        <v>7565188.800450709</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -5157,13 +5157,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L96" t="n">
-        <v>708.5826176671544</v>
+        <v>428.5961779458448</v>
       </c>
       <c r="M96" t="n">
-        <v>348.4892729632556</v>
+        <v>403.1416087886319</v>
       </c>
       <c r="N96" t="n">
-        <v>789.6417538545535</v>
+        <v>588.402787626361</v>
       </c>
       <c r="O96" t="n">
         <v>643.6314367787569</v>
@@ -5183,10 +5183,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E97" t="n">
-        <v>427670.8862903264</v>
+        <v>427560.4630012197</v>
       </c>
       <c r="F97" t="n">
-        <v>7565410.163789203</v>
+        <v>7565434.830052366</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -5206,13 +5206,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L97" t="n">
-        <v>229.7565221962868</v>
+        <v>119.3332330895937</v>
       </c>
       <c r="M97" t="n">
-        <v>624.5049472833052</v>
+        <v>649.1712104454637</v>
       </c>
       <c r="N97" t="n">
-        <v>665.4280492082196</v>
+        <v>660.0482414118258</v>
       </c>
       <c r="O97" t="n">
         <v>643.6314367787569</v>
@@ -5232,10 +5232,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E98" t="n">
-        <v>427567.8903657772</v>
+        <v>427535.1348085924</v>
       </c>
       <c r="F98" t="n">
-        <v>7565924.388878423</v>
+        <v>7565939.05384527</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5255,13 +5255,13 @@
         <v>-840.9715710794553</v>
       </c>
       <c r="L98" t="n">
-        <v>126.7605976470513</v>
+        <v>94.00504046230344</v>
       </c>
       <c r="M98" t="n">
-        <v>1138.730036502704</v>
+        <v>1153.39500334952</v>
       </c>
       <c r="N98" t="n">
-        <v>1145.763651522114</v>
+        <v>1157.219504408718</v>
       </c>
       <c r="O98" t="n">
         <v>869.8793098530427</v>
@@ -5281,10 +5281,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E99" t="n">
-        <v>427720.6695626084</v>
+        <v>427732.314743886</v>
       </c>
       <c r="F99" t="n">
-        <v>7565058.935117127</v>
+        <v>7565109.246918608</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5304,13 +5304,13 @@
         <v>-771.6142980405129</v>
       </c>
       <c r="L99" t="n">
-        <v>340.3410271909088</v>
+        <v>351.9862084685592</v>
       </c>
       <c r="M99" t="n">
-        <v>428.4179376680404</v>
+        <v>478.7297391481698</v>
       </c>
       <c r="N99" t="n">
-        <v>547.1507508037432</v>
+        <v>594.2023679664586</v>
       </c>
       <c r="O99" t="n">
         <v>836.555615798977</v>
@@ -5330,10 +5330,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E100" t="n">
-        <v>427538.7118585389</v>
+        <v>427536.2280425599</v>
       </c>
       <c r="F100" t="n">
-        <v>7565079.222189884</v>
+        <v>7565135.31001051</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5353,13 +5353,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L100" t="n">
-        <v>158.3833231214667</v>
+        <v>155.8995071424288</v>
       </c>
       <c r="M100" t="n">
-        <v>448.7050104243681</v>
+        <v>504.7928310511634</v>
       </c>
       <c r="N100" t="n">
-        <v>475.8376439742144</v>
+        <v>528.3185200311461</v>
       </c>
       <c r="O100" t="n">
         <v>802.9814167025017</v>
@@ -5379,10 +5379,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E101" t="n">
-        <v>427605.8587313214</v>
+        <v>427570.1747480507</v>
       </c>
       <c r="F101" t="n">
-        <v>7565164.856477123</v>
+        <v>7565215.588730343</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5402,13 +5402,13 @@
         <v>-853.6215962072214</v>
       </c>
       <c r="L101" t="n">
-        <v>225.5301959039061</v>
+        <v>189.8462126332452</v>
       </c>
       <c r="M101" t="n">
-        <v>534.3392976634204</v>
+        <v>585.0715508833528</v>
       </c>
       <c r="N101" t="n">
-        <v>579.9847879831779</v>
+        <v>615.1018648193476</v>
       </c>
       <c r="O101" t="n">
         <v>870.4291269391435</v>
@@ -5428,10 +5428,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E102" t="n">
-        <v>427441.6074772133</v>
+        <v>427471.708158694</v>
       </c>
       <c r="F102" t="n">
-        <v>7565057.363538538</v>
+        <v>7565094.009627841</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5451,13 +5451,13 @@
         <v>-782.3757775407284</v>
       </c>
       <c r="L102" t="n">
-        <v>61.2789417958702</v>
+        <v>91.37962327658897</v>
       </c>
       <c r="M102" t="n">
-        <v>426.8463590787724</v>
+        <v>463.4924483820796</v>
       </c>
       <c r="N102" t="n">
-        <v>431.2225909741115</v>
+        <v>472.4145269330591</v>
       </c>
       <c r="O102" t="n">
         <v>790.6008364352165</v>
@@ -5477,10 +5477,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E103" t="n">
-        <v>427587.8175484252</v>
+        <v>427535.821110843</v>
       </c>
       <c r="F103" t="n">
-        <v>7565065.229630512</v>
+        <v>7565084.810659313</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -5500,13 +5500,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L103" t="n">
-        <v>207.4890130077838</v>
+        <v>155.4925754255964</v>
       </c>
       <c r="M103" t="n">
-        <v>434.712451052852</v>
+        <v>454.2934798533097</v>
       </c>
       <c r="N103" t="n">
-        <v>481.6914008152133</v>
+        <v>480.1671655264594</v>
       </c>
       <c r="O103" t="n">
         <v>802.9814167025017</v>
@@ -5526,10 +5526,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E104" t="n">
-        <v>427441.4485558617</v>
+        <v>427429.1388577372</v>
       </c>
       <c r="F104" t="n">
-        <v>7565030.480419055</v>
+        <v>7565069.499723874</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -5549,13 +5549,13 @@
         <v>-732.2700102074692</v>
       </c>
       <c r="L104" t="n">
-        <v>61.12002044421388</v>
+        <v>48.8103223197395</v>
       </c>
       <c r="M104" t="n">
-        <v>399.963239595294</v>
+        <v>438.9825444146991</v>
       </c>
       <c r="N104" t="n">
-        <v>404.6062900236026</v>
+        <v>441.6878104111094</v>
       </c>
       <c r="O104" t="n">
         <v>732.5971785410549</v>
@@ -5575,10 +5575,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E105" t="n">
-        <v>427619.1553521394</v>
+        <v>427540.8666726036</v>
       </c>
       <c r="F105" t="n">
-        <v>7565007.149553932</v>
+        <v>7565014.279034222</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5598,13 +5598,13 @@
         <v>-725.0956905406589</v>
       </c>
       <c r="L105" t="n">
-        <v>238.8268167219358</v>
+        <v>160.5381371862022</v>
       </c>
       <c r="M105" t="n">
-        <v>376.6323744729161</v>
+        <v>383.7618547631428</v>
       </c>
       <c r="N105" t="n">
-        <v>445.9710684412611</v>
+        <v>415.9875655142391</v>
       </c>
       <c r="O105" t="n">
         <v>742.8648385227489</v>
@@ -5624,10 +5624,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E106" t="n">
-        <v>427467.2067457162</v>
+        <v>427472.1923248211</v>
       </c>
       <c r="F106" t="n">
-        <v>7565167.03850652</v>
+        <v>7565209.11744176</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5647,13 +5647,13 @@
         <v>-472.0065820631571</v>
       </c>
       <c r="L106" t="n">
-        <v>-83.16338329087012</v>
+        <v>-78.17780418595066</v>
       </c>
       <c r="M106" t="n">
-        <v>210.2970930831507</v>
+        <v>252.3760283235461</v>
       </c>
       <c r="N106" t="n">
-        <v>226.1437942540266</v>
+        <v>264.207170114106</v>
       </c>
       <c r="O106" t="n">
         <v>479.21832990863</v>
@@ -5673,10 +5673,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E107" t="n">
-        <v>427922.8170207333</v>
+        <v>427732.5125570249</v>
       </c>
       <c r="F107" t="n">
-        <v>7565279.758496903</v>
+        <v>7565316.049808264</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5696,13 +5696,13 @@
         <v>-527.3973622297248</v>
       </c>
       <c r="L107" t="n">
-        <v>372.4468917262857</v>
+        <v>182.1424280178617</v>
       </c>
       <c r="M107" t="n">
-        <v>323.017083466053</v>
+        <v>359.3083948269486</v>
       </c>
       <c r="N107" t="n">
-        <v>493.0078329676787</v>
+        <v>402.8379161367017</v>
       </c>
       <c r="O107" t="n">
         <v>527.3973946174215</v>
@@ -5722,10 +5722,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E108" t="n">
-        <v>425153.0254093098</v>
+        <v>425252.7984589397</v>
       </c>
       <c r="F108" t="n">
-        <v>7576969.031766637</v>
+        <v>7577015.96348388</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5745,13 +5745,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L108" t="n">
-        <v>-270.6488470460172</v>
+        <v>-170.8757974161417</v>
       </c>
       <c r="M108" t="n">
-        <v>376.6023085312918</v>
+        <v>423.5340257743374</v>
       </c>
       <c r="N108" t="n">
-        <v>463.7672877623395</v>
+        <v>456.7051665256474</v>
       </c>
       <c r="O108" t="n">
         <v>737.6384903303916</v>
@@ -5771,10 +5771,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E109" t="n">
-        <v>425440.7137698067</v>
+        <v>425286.8789439495</v>
       </c>
       <c r="F109" t="n">
-        <v>7576965.370210008</v>
+        <v>7576981.99117905</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5794,13 +5794,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L109" t="n">
-        <v>17.03951345087262</v>
+        <v>-136.7953124063206</v>
       </c>
       <c r="M109" t="n">
-        <v>372.9407519018278</v>
+        <v>389.5617209440097</v>
       </c>
       <c r="N109" t="n">
-        <v>373.3298132318702</v>
+        <v>412.881692402559</v>
       </c>
       <c r="O109" t="n">
         <v>737.6384903303916</v>
@@ -5820,10 +5820,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E110" t="n">
-        <v>425563.1816253874</v>
+        <v>425314.3411765986</v>
       </c>
       <c r="F110" t="n">
-        <v>7576963.041051097</v>
+        <v>7577030.175258931</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5843,13 +5843,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L110" t="n">
-        <v>139.5073690315476</v>
+        <v>-109.3330797572271</v>
       </c>
       <c r="M110" t="n">
-        <v>370.6115929912776</v>
+        <v>437.7458008248359</v>
       </c>
       <c r="N110" t="n">
-        <v>395.9990642332842</v>
+        <v>451.1929836211741</v>
       </c>
       <c r="O110" t="n">
         <v>737.6384903303916</v>
@@ -5869,10 +5869,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E111" t="n">
-        <v>425533.315857292</v>
+        <v>425279.3467040252</v>
       </c>
       <c r="F111" t="n">
-        <v>7577015.427640081</v>
+        <v>7577060.543162864</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5892,13 +5892,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L111" t="n">
-        <v>109.6416009361274</v>
+        <v>-144.327552330622</v>
       </c>
       <c r="M111" t="n">
-        <v>422.9981819754466</v>
+        <v>468.1137047577649</v>
       </c>
       <c r="N111" t="n">
-        <v>436.976821593972</v>
+        <v>489.8580232514196</v>
       </c>
       <c r="O111" t="n">
         <v>737.6384903303916</v>
@@ -5918,10 +5918,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E112" t="n">
-        <v>424075.9687461185</v>
+        <v>424002.9028699185</v>
       </c>
       <c r="F112" t="n">
-        <v>7576016.546866119</v>
+        <v>7576050.4319889</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -5941,13 +5941,13 @@
         <v>1144.402715245634</v>
       </c>
       <c r="L112" t="n">
-        <v>-736.9714216969442</v>
+        <v>-810.0372978969826</v>
       </c>
       <c r="M112" t="n">
-        <v>-1092.373451126739</v>
+        <v>-1058.488328346051</v>
       </c>
       <c r="N112" t="n">
-        <v>1317.727829684324</v>
+        <v>1332.875825134909</v>
       </c>
       <c r="O112" t="n">
         <v>1382.186005655246</v>
@@ -5967,10 +5967,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E113" t="n">
-        <v>424007.8786718115</v>
+        <v>423934.6459682342</v>
       </c>
       <c r="F113" t="n">
-        <v>7576046.856128373</v>
+        <v>7576085.17541284</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -5990,13 +5990,13 @@
         <v>1068.512310245695</v>
       </c>
       <c r="L113" t="n">
-        <v>-805.0614960039966</v>
+        <v>-878.2941995813162</v>
       </c>
       <c r="M113" t="n">
-        <v>-1062.064188872464</v>
+        <v>-1023.744904405437</v>
       </c>
       <c r="N113" t="n">
-        <v>1332.705651535071</v>
+        <v>1348.871502521379</v>
       </c>
       <c r="O113" t="n">
         <v>1387.13526772572</v>
@@ -6016,10 +6016,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E114" t="n">
-        <v>423890.311491226</v>
+        <v>423829.1943791133</v>
       </c>
       <c r="F114" t="n">
-        <v>7576244.924636133</v>
+        <v>7576286.189914232</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -6039,13 +6039,13 @@
         <v>824.3912774456664</v>
       </c>
       <c r="L114" t="n">
-        <v>-922.6286765895202</v>
+        <v>-983.7457887021592</v>
       </c>
       <c r="M114" t="n">
-        <v>-863.9956811126322</v>
+        <v>-822.7304030135274</v>
       </c>
       <c r="N114" t="n">
-        <v>1264.014324225248</v>
+        <v>1282.435609624138</v>
       </c>
       <c r="O114" t="n">
         <v>1345.41517708645</v>
@@ -6065,10 +6065,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E115" t="n">
-        <v>424094.849511992</v>
+        <v>424004.6173677659</v>
       </c>
       <c r="F115" t="n">
-        <v>7575961.535871426</v>
+        <v>7575998.509073394</v>
       </c>
       <c r="G115" t="n">
         <v>7</v>
@@ -6088,13 +6088,13 @@
         <v>1158.41812096004</v>
       </c>
       <c r="L115" t="n">
-        <v>-718.090655823471</v>
+        <v>-808.3228000495583</v>
       </c>
       <c r="M115" t="n">
-        <v>-1147.384445820004</v>
+        <v>-1110.411243851297</v>
       </c>
       <c r="N115" t="n">
-        <v>1353.56760322145</v>
+        <v>1373.4623691792</v>
       </c>
       <c r="O115" t="n">
         <v>1505.535551042128</v>
@@ -6114,10 +6114,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E116" t="n">
-        <v>423972.5269723554</v>
+        <v>423933.2583460365</v>
       </c>
       <c r="F116" t="n">
-        <v>7575999.72909274</v>
+        <v>7575999.23498539</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6137,13 +6137,13 @@
         <v>273.9861762998626</v>
       </c>
       <c r="L116" t="n">
-        <v>-493.076147265092</v>
+        <v>-532.3447735839873</v>
       </c>
       <c r="M116" t="n">
-        <v>-405.8524345606565</v>
+        <v>-406.3465419104323</v>
       </c>
       <c r="N116" t="n">
-        <v>638.623743404987</v>
+        <v>669.7077497571261</v>
       </c>
       <c r="O116" t="n">
         <v>731.7073717843109</v>
@@ -6163,10 +6163,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E117" t="n">
-        <v>424271.8548982026</v>
+        <v>424130.5823107761</v>
       </c>
       <c r="F117" t="n">
-        <v>7576073.64582546</v>
+        <v>7576119.031405872</v>
       </c>
       <c r="G117" t="n">
         <v>8</v>
@@ -6186,13 +6186,13 @@
         <v>432.4426866752328</v>
       </c>
       <c r="L117" t="n">
-        <v>-193.7482214178308</v>
+        <v>-335.0208088444197</v>
       </c>
       <c r="M117" t="n">
-        <v>-331.9357018405572</v>
+        <v>-286.550121428445</v>
       </c>
       <c r="N117" t="n">
-        <v>384.3431844835499</v>
+        <v>440.8513518743316</v>
       </c>
       <c r="O117" t="n">
         <v>757.8046054740696</v>
@@ -6212,10 +6212,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E118" t="n">
-        <v>423721.4276896121</v>
+        <v>423641.7759560121</v>
       </c>
       <c r="F118" t="n">
-        <v>7575908.571592905</v>
+        <v>7575943.360869394</v>
       </c>
       <c r="G118" t="n">
         <v>6</v>
@@ -6235,13 +6235,13 @@
         <v>462.1014478001744</v>
       </c>
       <c r="L118" t="n">
-        <v>-744.1754300083849</v>
+        <v>-823.8271636083955</v>
       </c>
       <c r="M118" t="n">
-        <v>-497.0099343955517</v>
+        <v>-462.220657906495</v>
       </c>
       <c r="N118" t="n">
-        <v>894.8832021644139</v>
+        <v>944.6370372235926</v>
       </c>
       <c r="O118" t="n">
         <v>1116.76538578052</v>
@@ -6261,10 +6261,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E119" t="n">
-        <v>422748.757861441</v>
+        <v>422461.2903171238</v>
       </c>
       <c r="F119" t="n">
-        <v>7574619.821418547</v>
+        <v>7574650.504754849</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6284,13 +6284,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L119" t="n">
-        <v>582.1205710825743</v>
+        <v>294.6530267653288</v>
       </c>
       <c r="M119" t="n">
-        <v>418.6619258513674</v>
+        <v>449.3452621530741</v>
       </c>
       <c r="N119" t="n">
-        <v>717.0370753559946</v>
+        <v>537.3374831531712</v>
       </c>
       <c r="O119" t="n">
         <v>642.3448153729219</v>
@@ -6310,10 +6310,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E120" t="n">
-        <v>422613.1972985201</v>
+        <v>422447.1909530134</v>
       </c>
       <c r="F120" t="n">
-        <v>7574605.388482593</v>
+        <v>7574640.185439349</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6333,13 +6333,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L120" t="n">
-        <v>446.5600081617013</v>
+        <v>280.5536626549438</v>
       </c>
       <c r="M120" t="n">
-        <v>404.2289898972958</v>
+        <v>439.025946653448</v>
       </c>
       <c r="N120" t="n">
-        <v>602.3428568205709</v>
+        <v>521.0126096977502</v>
       </c>
       <c r="O120" t="n">
         <v>642.3448153729219</v>
@@ -6359,10 +6359,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E121" t="n">
-        <v>422290.3137462683</v>
+        <v>421919.7646129889</v>
       </c>
       <c r="F121" t="n">
-        <v>7573910.153738201</v>
+        <v>7573955.535136327</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6382,13 +6382,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L121" t="n">
-        <v>123.6764559099101</v>
+        <v>-246.8726773695089</v>
       </c>
       <c r="M121" t="n">
-        <v>-291.0057544950396</v>
+        <v>-245.6243563685566</v>
       </c>
       <c r="N121" t="n">
-        <v>316.1964814726173</v>
+        <v>348.2491109436711</v>
       </c>
       <c r="O121" t="n">
         <v>1058.778241350072</v>
@@ -6408,10 +6408,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E122" t="n">
-        <v>421570.1690134138</v>
+        <v>421476.6710176443</v>
       </c>
       <c r="F122" t="n">
-        <v>7573916.883465986</v>
+        <v>7573946.583139798</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6431,13 +6431,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L122" t="n">
-        <v>-596.4682769446517</v>
+        <v>-689.9662727140822</v>
       </c>
       <c r="M122" t="n">
-        <v>-284.2760267099366</v>
+        <v>-254.5763528980315</v>
       </c>
       <c r="N122" t="n">
-        <v>660.7475045456549</v>
+        <v>735.4335979120251</v>
       </c>
       <c r="O122" t="n">
         <v>1058.778241350072</v>
@@ -6457,10 +6457,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E123" t="n">
-        <v>422223.7514792251</v>
+        <v>421867.4312965868</v>
       </c>
       <c r="F123" t="n">
-        <v>7573940.97462407</v>
+        <v>7573972.582215139</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6480,13 +6480,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L123" t="n">
-        <v>262.5470005167881</v>
+        <v>-93.77318212157115</v>
       </c>
       <c r="M123" t="n">
-        <v>-409.9402946596965</v>
+        <v>-378.3327035913244</v>
       </c>
       <c r="N123" t="n">
-        <v>486.8079422791304</v>
+        <v>389.7807643944558</v>
       </c>
       <c r="O123" t="n">
         <v>907.6056608749877</v>
@@ -6506,10 +6506,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E124" t="n">
-        <v>422388.266698247</v>
+        <v>421968.7732225357</v>
       </c>
       <c r="F124" t="n">
-        <v>7573937.563126884</v>
+        <v>7573971.33932893</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6529,13 +6529,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L124" t="n">
-        <v>427.0622195386677</v>
+        <v>7.568743827345315</v>
       </c>
       <c r="M124" t="n">
-        <v>-413.3517918456346</v>
+        <v>-379.5755898002535</v>
       </c>
       <c r="N124" t="n">
-        <v>594.3415206590315</v>
+        <v>379.6510427423245</v>
       </c>
       <c r="O124" t="n">
         <v>907.6056608749877</v>
@@ -6555,10 +6555,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E125" t="n">
-        <v>422382.4031318213</v>
+        <v>421969.8918696906</v>
       </c>
       <c r="F125" t="n">
-        <v>7573933.175219046</v>
+        <v>7573961.432499117</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6578,13 +6578,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L125" t="n">
-        <v>421.1986531129223</v>
+        <v>8.687390982231591</v>
       </c>
       <c r="M125" t="n">
-        <v>-417.7396996840835</v>
+        <v>-389.4824196128175</v>
       </c>
       <c r="N125" t="n">
-        <v>593.2240403728495</v>
+        <v>389.5792935328224</v>
       </c>
       <c r="O125" t="n">
         <v>907.6056608749877</v>
@@ -6604,10 +6604,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E126" t="n">
-        <v>422378.3740960608</v>
+        <v>421970.8311334493</v>
       </c>
       <c r="F126" t="n">
-        <v>7573917.374970128</v>
+        <v>7573952.641153417</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6627,13 +6627,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L126" t="n">
-        <v>417.1696173524251</v>
+        <v>9.626654741005041</v>
       </c>
       <c r="M126" t="n">
-        <v>-433.539948602207</v>
+        <v>-398.2737653134391</v>
       </c>
       <c r="N126" t="n">
-        <v>601.6538678309756</v>
+        <v>398.3900910143811</v>
       </c>
       <c r="O126" t="n">
         <v>907.6056608749877</v>
@@ -6653,10 +6653,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E127" t="n">
-        <v>422129.7529558353</v>
+        <v>421821.7367412417</v>
       </c>
       <c r="F127" t="n">
-        <v>7573909.692327089</v>
+        <v>7573950.084956227</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L127" t="n">
-        <v>168.5484771269839</v>
+        <v>-139.4677374666207</v>
       </c>
       <c r="M127" t="n">
-        <v>-441.222591641359</v>
+        <v>-400.829962503165</v>
       </c>
       <c r="N127" t="n">
-        <v>472.3197693475712</v>
+        <v>424.4006463641955</v>
       </c>
       <c r="O127" t="n">
         <v>907.6056608749877</v>
@@ -6702,10 +6702,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E128" t="n">
-        <v>421905.5824904522</v>
+        <v>421658.1810905224</v>
       </c>
       <c r="F128" t="n">
-        <v>7573907.753573416</v>
+        <v>7573945.323219287</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6725,13 +6725,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L128" t="n">
-        <v>55.52695724839577</v>
+        <v>-191.8744426813792</v>
       </c>
       <c r="M128" t="n">
-        <v>33.81713407859206</v>
+        <v>71.38677995000035</v>
       </c>
       <c r="N128" t="n">
-        <v>65.01416413793724</v>
+        <v>204.7238972516878</v>
       </c>
       <c r="O128" t="n">
         <v>729.1420156673895</v>
@@ -6751,10 +6751,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E129" t="n">
-        <v>421897.7315184263</v>
+        <v>421663.5252709794</v>
       </c>
       <c r="F129" t="n">
-        <v>7573923.074218044</v>
+        <v>7573961.547676512</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6774,13 +6774,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L129" t="n">
-        <v>47.67598522244953</v>
+        <v>-186.5302622243762</v>
       </c>
       <c r="M129" t="n">
-        <v>49.13777870684862</v>
+        <v>87.61123717483133</v>
       </c>
       <c r="N129" t="n">
-        <v>68.46547205105981</v>
+        <v>206.0807307945095</v>
       </c>
       <c r="O129" t="n">
         <v>729.1420156673895</v>
@@ -6800,10 +6800,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E130" t="n">
-        <v>421708.4202899053</v>
+        <v>421576.906962684</v>
       </c>
       <c r="F130" t="n">
-        <v>7573905.728508336</v>
+        <v>7573963.403591525</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6823,13 +6823,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L130" t="n">
-        <v>-141.6352432984859</v>
+        <v>-273.1485705198138</v>
       </c>
       <c r="M130" t="n">
-        <v>31.79206899926066</v>
+        <v>89.46715218760073</v>
       </c>
       <c r="N130" t="n">
-        <v>145.1594908901069</v>
+        <v>287.4274045695313</v>
       </c>
       <c r="O130" t="n">
         <v>729.1420156673895</v>
@@ -6849,10 +6849,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E131" t="n">
-        <v>421893.9516162506</v>
+        <v>421664.4915106905</v>
       </c>
       <c r="F131" t="n">
-        <v>7573886.945406599</v>
+        <v>7573931.468038139</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6872,13 +6872,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L131" t="n">
-        <v>43.89608304679859</v>
+        <v>-185.5640225132811</v>
       </c>
       <c r="M131" t="n">
-        <v>13.00896726176143</v>
+        <v>57.53159880172461</v>
       </c>
       <c r="N131" t="n">
-        <v>45.78317743526567</v>
+        <v>194.2778713904188</v>
       </c>
       <c r="O131" t="n">
         <v>729.1420156673895</v>
@@ -6898,10 +6898,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E132" t="n">
-        <v>421509.6758652157</v>
+        <v>421401.9641696636</v>
       </c>
       <c r="F132" t="n">
-        <v>7573849.601328176</v>
+        <v>7573890.501287904</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6921,13 +6921,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L132" t="n">
-        <v>-340.3796679881634</v>
+        <v>-448.0913635402103</v>
       </c>
       <c r="M132" t="n">
-        <v>-24.33511116076261</v>
+        <v>16.56484856642783</v>
       </c>
       <c r="N132" t="n">
-        <v>341.2484666851106</v>
+        <v>448.3974400990193</v>
       </c>
       <c r="O132" t="n">
         <v>729.1420156673895</v>
@@ -6947,10 +6947,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E133" t="n">
-        <v>422221.6178031991</v>
+        <v>421863.1357220628</v>
       </c>
       <c r="F133" t="n">
-        <v>7573908.855796007</v>
+        <v>7573947.618165857</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6970,13 +6970,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L133" t="n">
-        <v>371.5622699952801</v>
+        <v>13.08018885896308</v>
       </c>
       <c r="M133" t="n">
-        <v>34.9193566692993</v>
+        <v>73.68172651994973</v>
       </c>
       <c r="N133" t="n">
-        <v>373.1995203028042</v>
+        <v>74.83373680063562</v>
       </c>
       <c r="O133" t="n">
         <v>729.1420156673895</v>
@@ -6996,10 +6996,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E134" t="n">
-        <v>427632.7749265998</v>
+        <v>427510.4196350308</v>
       </c>
       <c r="F134" t="n">
-        <v>7565248.69591998</v>
+        <v>7565292.358143659</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -7019,13 +7019,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L134" t="n">
-        <v>631.5999537800089</v>
+        <v>509.2446622110438</v>
       </c>
       <c r="M134" t="n">
-        <v>94.12937460746616</v>
+        <v>137.7915982864797</v>
       </c>
       <c r="N134" t="n">
-        <v>638.5756343448301</v>
+        <v>527.5572485984651</v>
       </c>
       <c r="O134" t="n">
         <v>540.9958536667958</v>
@@ -7045,10 +7045,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E135" t="n">
-        <v>427361.51138889</v>
+        <v>427338.4710247134</v>
       </c>
       <c r="F135" t="n">
-        <v>7565222.29393093</v>
+        <v>7565255.911153843</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7068,13 +7068,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L135" t="n">
-        <v>360.3364160701749</v>
+        <v>337.2960518935579</v>
       </c>
       <c r="M135" t="n">
-        <v>67.72738555725664</v>
+        <v>101.3446084698662</v>
       </c>
       <c r="N135" t="n">
-        <v>366.6460575278555</v>
+        <v>352.1922149748517</v>
       </c>
       <c r="O135" t="n">
         <v>540.9958536667958</v>
@@ -7094,10 +7094,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E136" t="n">
-        <v>421306.0400737402</v>
+        <v>421322.1142506534</v>
       </c>
       <c r="F136" t="n">
-        <v>7573855.246466188</v>
+        <v>7573900.347681317</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7117,13 +7117,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L136" t="n">
-        <v>164.6851157225319</v>
+        <v>180.7592926357174</v>
       </c>
       <c r="M136" t="n">
-        <v>-44.95376849640161</v>
+        <v>0.1474466333165765</v>
       </c>
       <c r="N136" t="n">
-        <v>170.7103647778066</v>
+        <v>180.7593527723382</v>
       </c>
       <c r="O136" t="n">
         <v>87.60483223299717</v>
@@ -7143,10 +7143,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E137" t="n">
-        <v>421403.926587585</v>
+        <v>421415.1507859972</v>
       </c>
       <c r="F137" t="n">
-        <v>7573877.936279512</v>
+        <v>7573913.136048359</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7166,13 +7166,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L137" t="n">
-        <v>262.5716295673046</v>
+        <v>273.795827979513</v>
       </c>
       <c r="M137" t="n">
-        <v>-22.26395517215133</v>
+        <v>12.93581367470324</v>
       </c>
       <c r="N137" t="n">
-        <v>263.5138409145474</v>
+        <v>274.1012416871067</v>
       </c>
       <c r="O137" t="n">
         <v>87.60483223299717</v>
@@ -7192,10 +7192,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E138" t="n">
-        <v>421871.6384429245</v>
+        <v>421631.2982658261</v>
       </c>
       <c r="F138" t="n">
-        <v>7573886.140428956</v>
+        <v>7573922.888810113</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7215,13 +7215,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L138" t="n">
-        <v>730.2834849068313</v>
+        <v>489.9433078084257</v>
       </c>
       <c r="M138" t="n">
-        <v>-14.05980572849512</v>
+        <v>22.68857542891055</v>
       </c>
       <c r="N138" t="n">
-        <v>730.4188157932332</v>
+        <v>490.4683642410132</v>
       </c>
       <c r="O138" t="n">
         <v>87.60483223299717</v>
@@ -7241,10 +7241,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E139" t="n">
-        <v>422269.1511278727</v>
+        <v>421788.1257713207</v>
       </c>
       <c r="F139" t="n">
-        <v>7573875.422822088</v>
+        <v>7573898.355461788</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7264,13 +7264,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L139" t="n">
-        <v>1127.79616985505</v>
+        <v>646.7708133030683</v>
       </c>
       <c r="M139" t="n">
-        <v>-24.77741259615868</v>
+        <v>-1.844772895798087</v>
       </c>
       <c r="N139" t="n">
-        <v>1128.068313939666</v>
+        <v>646.7734442041892</v>
       </c>
       <c r="O139" t="n">
         <v>87.60483223299717</v>
@@ -7290,10 +7290,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E140" t="n">
-        <v>421740.3238037661</v>
+        <v>421370.139100093</v>
       </c>
       <c r="F140" t="n">
-        <v>7573968.166373137</v>
+        <v>7573946.323116831</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7313,13 +7313,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L140" t="n">
-        <v>551.6154121706495</v>
+        <v>181.4307084975298</v>
       </c>
       <c r="M140" t="n">
-        <v>78.68921844661236</v>
+        <v>56.84596214070916</v>
       </c>
       <c r="N140" t="n">
-        <v>557.199745193709</v>
+        <v>190.1277607232005</v>
       </c>
       <c r="O140" t="n">
         <v>113.992791523481</v>
@@ -7339,10 +7339,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E141" t="n">
-        <v>421807.455603965</v>
+        <v>421455.4904526238</v>
       </c>
       <c r="F141" t="n">
-        <v>7573976.993857511</v>
+        <v>7573944.930455298</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7362,13 +7362,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L141" t="n">
-        <v>618.747212369577</v>
+        <v>266.7820610282943</v>
       </c>
       <c r="M141" t="n">
-        <v>87.51670282054693</v>
+        <v>55.4533006073907</v>
       </c>
       <c r="N141" t="n">
-        <v>624.9058217745314</v>
+        <v>272.4843786985928</v>
       </c>
       <c r="O141" t="n">
         <v>113.992791523481</v>
@@ -7388,10 +7388,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E142" t="n">
-        <v>421460.8865264929</v>
+        <v>421337.5090379414</v>
       </c>
       <c r="F142" t="n">
-        <v>7573962.101244413</v>
+        <v>7573998.993682087</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7411,13 +7411,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L142" t="n">
-        <v>272.1781348974328</v>
+        <v>148.800646345946</v>
       </c>
       <c r="M142" t="n">
-        <v>72.6240897225216</v>
+        <v>109.5165273966268</v>
       </c>
       <c r="N142" t="n">
-        <v>281.7005422860772</v>
+        <v>184.757955514742</v>
       </c>
       <c r="O142" t="n">
         <v>113.992791523481</v>
@@ -7437,10 +7437,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E143" t="n">
-        <v>421143.1063861068</v>
+        <v>421124.0932602955</v>
       </c>
       <c r="F143" t="n">
-        <v>7573780.026976089</v>
+        <v>7573850.168284942</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7460,13 +7460,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L143" t="n">
-        <v>-133.9356623148778</v>
+        <v>-152.9487881261739</v>
       </c>
       <c r="M143" t="n">
-        <v>-61.18373280670494</v>
+        <v>8.957576046697795</v>
       </c>
       <c r="N143" t="n">
-        <v>147.2488057672701</v>
+        <v>153.2108676233433</v>
       </c>
       <c r="O143" t="n">
         <v>207.2732644944556</v>
@@ -7486,10 +7486,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E144" t="n">
-        <v>422115.0080534535</v>
+        <v>421889.9699056966</v>
       </c>
       <c r="F144" t="n">
-        <v>7573823.056324059</v>
+        <v>7573898.876943508</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7509,13 +7509,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L144" t="n">
-        <v>837.9660050318926</v>
+        <v>612.9278572750045</v>
       </c>
       <c r="M144" t="n">
-        <v>-18.15438483655453</v>
+        <v>57.6662346124649</v>
       </c>
       <c r="N144" t="n">
-        <v>838.1626377248651</v>
+        <v>615.6345936008698</v>
       </c>
       <c r="O144" t="n">
         <v>207.2732644944556</v>
@@ -7535,10 +7535,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E145" t="n">
-        <v>421109.0829669799</v>
+        <v>421129.6398094208</v>
       </c>
       <c r="F145" t="n">
-        <v>7573988.372386589</v>
+        <v>7574010.288098034</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7558,13 +7558,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L145" t="n">
-        <v>95.42245521297446</v>
+        <v>115.9792976538884</v>
       </c>
       <c r="M145" t="n">
-        <v>244.5564711540937</v>
+        <v>266.4721825988963</v>
       </c>
       <c r="N145" t="n">
-        <v>262.5134521166776</v>
+        <v>290.6176553193367</v>
       </c>
       <c r="O145" t="n">
         <v>269.4952790421774</v>
@@ -7584,10 +7584,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E146" t="n">
-        <v>420895.6980291484</v>
+        <v>420909.7425726712</v>
       </c>
       <c r="F146" t="n">
-        <v>7573939.28591738</v>
+        <v>7573940.827677286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7607,13 +7607,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L146" t="n">
-        <v>-117.9624826185172</v>
+        <v>-103.9179390956997</v>
       </c>
       <c r="M146" t="n">
-        <v>195.4700019452721</v>
+        <v>197.0117618516088</v>
       </c>
       <c r="N146" t="n">
-        <v>228.3060861344013</v>
+        <v>222.7387985371488</v>
       </c>
       <c r="O146" t="n">
         <v>269.4952790421774</v>
@@ -7633,10 +7633,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E147" t="n">
-        <v>422587.2620027713</v>
+        <v>422216.6547279905</v>
       </c>
       <c r="F147" t="n">
-        <v>7573900.383744388</v>
+        <v>7573928.759197122</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7656,13 +7656,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L147" t="n">
-        <v>1573.601491004403</v>
+        <v>1202.994216223597</v>
       </c>
       <c r="M147" t="n">
-        <v>156.5678289532661</v>
+        <v>184.9432816877961</v>
       </c>
       <c r="N147" t="n">
-        <v>1581.371283903442</v>
+        <v>1217.12739748511</v>
       </c>
       <c r="O147" t="n">
         <v>269.4952790421774</v>
@@ -7682,10 +7682,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E148" t="n">
-        <v>421402.7202726963</v>
+        <v>421365.7867961886</v>
       </c>
       <c r="F148" t="n">
-        <v>7573927.852689971</v>
+        <v>7573905.586158348</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7705,13 +7705,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L148" t="n">
-        <v>389.0597609293764</v>
+        <v>352.1262844217126</v>
       </c>
       <c r="M148" t="n">
-        <v>184.0367745365947</v>
+        <v>161.7702429136261</v>
       </c>
       <c r="N148" t="n">
-        <v>430.3917192003778</v>
+        <v>387.5081052997143</v>
       </c>
       <c r="O148" t="n">
         <v>269.4952790421774</v>
@@ -7731,10 +7731,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E149" t="n">
-        <v>421964.3933470962</v>
+        <v>421643.4198381771</v>
       </c>
       <c r="F149" t="n">
-        <v>7573792.573592594</v>
+        <v>7573852.550081613</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7754,13 +7754,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L149" t="n">
-        <v>818.9555836144136</v>
+        <v>497.9820746953483</v>
       </c>
       <c r="M149" t="n">
-        <v>69.35437848046422</v>
+        <v>129.3308675000444</v>
       </c>
       <c r="N149" t="n">
-        <v>821.88702249618</v>
+        <v>514.5023032078647</v>
       </c>
       <c r="O149" t="n">
         <v>264.2789242965521</v>
@@ -7780,10 +7780,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E150" t="n">
-        <v>421358.0796557213</v>
+        <v>421389.5443901279</v>
       </c>
       <c r="F150" t="n">
-        <v>7573889.11603373</v>
+        <v>7573955.889328772</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7803,13 +7803,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L150" t="n">
-        <v>212.6418922395678</v>
+        <v>244.1066266461276</v>
       </c>
       <c r="M150" t="n">
-        <v>165.8968196166679</v>
+        <v>232.6701146587729</v>
       </c>
       <c r="N150" t="n">
-        <v>269.7004432590893</v>
+        <v>337.2290429780307</v>
       </c>
       <c r="O150" t="n">
         <v>264.2789242965521</v>
@@ -7829,10 +7829,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E151" t="n">
-        <v>421130.7232153466</v>
+        <v>421060.3596782147</v>
       </c>
       <c r="F151" t="n">
-        <v>7573698.603746139</v>
+        <v>7573769.609639359</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7852,13 +7852,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L151" t="n">
-        <v>-18.02490334847244</v>
+        <v>-88.38844048033934</v>
       </c>
       <c r="M151" t="n">
-        <v>17.9856387777254</v>
+        <v>88.99153199698776</v>
       </c>
       <c r="N151" t="n">
-        <v>25.46331366818923</v>
+        <v>125.4273063480094</v>
       </c>
       <c r="O151" t="n">
         <v>307.0024239049048</v>
@@ -7878,10 +7878,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E152" t="n">
-        <v>421912.5552709331</v>
+        <v>421668.0902347738</v>
       </c>
       <c r="F152" t="n">
-        <v>7573798.094859523</v>
+        <v>7573839.425869554</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7901,13 +7901,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L152" t="n">
-        <v>763.8071522380342</v>
+        <v>519.3421160787111</v>
       </c>
       <c r="M152" t="n">
-        <v>117.4767521610484</v>
+        <v>158.8077621925622</v>
       </c>
       <c r="N152" t="n">
-        <v>772.7885565329522</v>
+        <v>543.0802324387464</v>
       </c>
       <c r="O152" t="n">
         <v>307.0024239049048</v>
@@ -7927,10 +7927,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E153" t="n">
-        <v>422044.8017992392</v>
+        <v>421777.1299545104</v>
       </c>
       <c r="F153" t="n">
-        <v>7573877.815456904</v>
+        <v>7573917.113078769</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L153" t="n">
-        <v>896.053680544137</v>
+        <v>628.3818358153221</v>
       </c>
       <c r="M153" t="n">
-        <v>197.1973495418206</v>
+        <v>236.4949714075774</v>
       </c>
       <c r="N153" t="n">
-        <v>917.4960452683234</v>
+        <v>671.4116494995491</v>
       </c>
       <c r="O153" t="n">
         <v>307.0024239049048</v>
@@ -7976,10 +7976,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E154" t="n">
-        <v>421808.8720116996</v>
+        <v>421502.378303331</v>
       </c>
       <c r="F154" t="n">
-        <v>7573822.630912596</v>
+        <v>7573876.673009159</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7999,13 +7999,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L154" t="n">
-        <v>660.1238930045511</v>
+        <v>353.6301846359274</v>
       </c>
       <c r="M154" t="n">
-        <v>142.0128052346408</v>
+        <v>196.0549017973244</v>
       </c>
       <c r="N154" t="n">
-        <v>675.2267700307031</v>
+        <v>404.3412321349365</v>
       </c>
       <c r="O154" t="n">
         <v>307.0024239049048</v>
@@ -8025,10 +8025,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E155" t="n">
-        <v>422145.9687688326</v>
+        <v>421815.0441455421</v>
       </c>
       <c r="F155" t="n">
-        <v>7573834.324998938</v>
+        <v>7573891.472005348</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8048,13 +8048,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L155" t="n">
-        <v>997.2206501375767</v>
+        <v>666.2960268470342</v>
       </c>
       <c r="M155" t="n">
-        <v>153.7068915767595</v>
+        <v>210.8538979860023</v>
       </c>
       <c r="N155" t="n">
-        <v>1008.996944286255</v>
+        <v>698.8631923975072</v>
       </c>
       <c r="O155" t="n">
         <v>307.0024239049048</v>
@@ -8074,10 +8074,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E156" t="n">
-        <v>422018.3809062568</v>
+        <v>421779.0257027998</v>
       </c>
       <c r="F156" t="n">
-        <v>7573835.498735492</v>
+        <v>7573889.787995739</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8097,13 +8097,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L156" t="n">
-        <v>869.6327875617426</v>
+        <v>630.2775841047405</v>
       </c>
       <c r="M156" t="n">
-        <v>154.8806281303987</v>
+        <v>209.1698883771896</v>
       </c>
       <c r="N156" t="n">
-        <v>883.3171537859287</v>
+        <v>664.079720537101</v>
       </c>
       <c r="O156" t="n">
         <v>307.0024239049048</v>
@@ -8123,10 +8123,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E157" t="n">
-        <v>421111.0579964481</v>
+        <v>421069.1630759198</v>
       </c>
       <c r="F157" t="n">
-        <v>7573743.115713931</v>
+        <v>7573793.043679533</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8146,13 +8146,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L157" t="n">
-        <v>89.01604606898036</v>
+        <v>47.12112554069608</v>
       </c>
       <c r="M157" t="n">
-        <v>85.37876147218049</v>
+        <v>135.3067270740867</v>
       </c>
       <c r="N157" t="n">
-        <v>123.342569165225</v>
+        <v>143.2770423470677</v>
       </c>
       <c r="O157" t="n">
         <v>346.4581114506526</v>
@@ -8172,10 +8172,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E158" t="n">
-        <v>422400.1376207284</v>
+        <v>422010.8373544679</v>
       </c>
       <c r="F158" t="n">
-        <v>7573848.423201438</v>
+        <v>7573911.074738725</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8195,13 +8195,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L158" t="n">
-        <v>1378.095670349256</v>
+        <v>988.7954040887998</v>
       </c>
       <c r="M158" t="n">
-        <v>190.6862489795312</v>
+        <v>253.3377862665802</v>
       </c>
       <c r="N158" t="n">
-        <v>1391.225690599929</v>
+        <v>1020.733258543869</v>
       </c>
       <c r="O158" t="n">
         <v>346.4581114506526</v>
@@ -8221,10 +8221,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E159" t="n">
-        <v>424256.2933406487</v>
+        <v>424144.6872095056</v>
       </c>
       <c r="F159" t="n">
-        <v>7575883.732528533</v>
+        <v>7575916.612026661</v>
       </c>
       <c r="G159" t="n">
         <v>7</v>
@@ -8244,13 +8244,13 @@
         <v>4.206331346450107</v>
       </c>
       <c r="L159" t="n">
-        <v>-345.3189634003793</v>
+        <v>-456.9250945434324</v>
       </c>
       <c r="M159" t="n">
-        <v>-70.97599909920245</v>
+        <v>-38.09650097135454</v>
       </c>
       <c r="N159" t="n">
-        <v>352.5376276825532</v>
+        <v>458.5105074148083</v>
       </c>
       <c r="O159" t="n">
         <v>750.2996260564154</v>
@@ -8270,10 +8270,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E160" t="n">
-        <v>425142.3452224602</v>
+        <v>424603.6239888853</v>
       </c>
       <c r="F160" t="n">
-        <v>7575687.750771337</v>
+        <v>7575737.538884539</v>
       </c>
       <c r="G160" t="n">
         <v>8</v>
@@ -8293,13 +8293,13 @@
         <v>185.3827432570979</v>
       </c>
       <c r="L160" t="n">
-        <v>540.7329184111441</v>
+        <v>2.011684836237691</v>
       </c>
       <c r="M160" t="n">
-        <v>-266.9577562948689</v>
+        <v>-217.1696430929005</v>
       </c>
       <c r="N160" t="n">
-        <v>603.0410704914083</v>
+        <v>217.1789602078851</v>
       </c>
       <c r="O160" t="n">
         <v>1060.240461805684</v>
@@ -8319,10 +8319,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E161" t="n">
-        <v>425171.3413877756</v>
+        <v>424662.8804097188</v>
       </c>
       <c r="F161" t="n">
-        <v>7575751.017197587</v>
+        <v>7575807.109773763</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
@@ -8342,13 +8342,13 @@
         <v>171.753767632081</v>
       </c>
       <c r="L161" t="n">
-        <v>569.7290837265318</v>
+        <v>61.2681056697038</v>
       </c>
       <c r="M161" t="n">
-        <v>-203.6913300454617</v>
+        <v>-147.5987538695335</v>
       </c>
       <c r="N161" t="n">
-        <v>605.0465988496776</v>
+        <v>159.8098023157314</v>
       </c>
       <c r="O161" t="n">
         <v>971.8355815744785</v>
@@ -8368,10 +8368,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E162" t="n">
-        <v>421630.6141929641</v>
+        <v>421578.3835048733</v>
       </c>
       <c r="F162" t="n">
-        <v>7573820.944950845</v>
+        <v>7573749.723240205</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8391,13 +8391,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L162" t="n">
-        <v>411.872832057823</v>
+        <v>359.6421439669793</v>
       </c>
       <c r="M162" t="n">
-        <v>10.46529328916222</v>
+        <v>-60.75641735084355</v>
       </c>
       <c r="N162" t="n">
-        <v>412.005767133131</v>
+        <v>364.7380072962994</v>
       </c>
       <c r="O162" t="n">
         <v>197.7173317929186</v>
@@ -8417,10 +8417,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E163" t="n">
-        <v>421901.4838551737</v>
+        <v>421956.8458315419</v>
       </c>
       <c r="F163" t="n">
-        <v>7573843.607463063</v>
+        <v>7573788.751503471</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8440,13 +8440,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L163" t="n">
-        <v>682.7424942674697</v>
+        <v>738.1044706355897</v>
       </c>
       <c r="M163" t="n">
-        <v>33.12780550681055</v>
+        <v>-21.72815408464521</v>
       </c>
       <c r="N163" t="n">
-        <v>683.545729981735</v>
+        <v>738.4242156458374</v>
       </c>
       <c r="O163" t="n">
         <v>197.7173317929186</v>
@@ -8466,10 +8466,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E164" t="n">
-        <v>421600.3663523715</v>
+        <v>421669.1523800418</v>
       </c>
       <c r="F164" t="n">
-        <v>7573820.267142466</v>
+        <v>7573761.328716894</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8489,13 +8489,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L164" t="n">
-        <v>381.6249914652435</v>
+        <v>450.4110191354994</v>
       </c>
       <c r="M164" t="n">
-        <v>9.787484910339117</v>
+        <v>-49.15094066224992</v>
       </c>
       <c r="N164" t="n">
-        <v>381.7504799888499</v>
+        <v>453.0848718801624</v>
       </c>
       <c r="O164" t="n">
         <v>197.7173317929186</v>
@@ -8515,10 +8515,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E165" t="n">
-        <v>421149.2573548741</v>
+        <v>420796.867549154</v>
       </c>
       <c r="F165" t="n">
-        <v>7573914.729281005</v>
+        <v>7573810.088226183</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8538,13 +8538,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L165" t="n">
-        <v>-69.48400603217306</v>
+        <v>-421.8738117523026</v>
       </c>
       <c r="M165" t="n">
-        <v>104.2496234495193</v>
+        <v>-0.3914313726127148</v>
       </c>
       <c r="N165" t="n">
-        <v>125.2837223411151</v>
+        <v>421.8739933450943</v>
       </c>
       <c r="O165" t="n">
         <v>197.7173317929186</v>
@@ -8564,10 +8564,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E166" t="n">
-        <v>421038.7293817612</v>
+        <v>420753.4271037768</v>
       </c>
       <c r="F166" t="n">
-        <v>7573955.716971872</v>
+        <v>7573900.4010595</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8587,13 +8587,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L166" t="n">
-        <v>-180.0119791451143</v>
+        <v>-465.3142571294447</v>
       </c>
       <c r="M166" t="n">
-        <v>145.2373143164441</v>
+        <v>89.92140194401145</v>
       </c>
       <c r="N166" t="n">
-        <v>231.296757663385</v>
+        <v>473.9232178481062</v>
       </c>
       <c r="O166" t="n">
         <v>197.7173317929186</v>
@@ -8613,10 +8613,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E167" t="n">
-        <v>421367.758699652</v>
+        <v>421346.669129047</v>
       </c>
       <c r="F167" t="n">
-        <v>7573971.60341424</v>
+        <v>7573963.658753702</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8636,13 +8636,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L167" t="n">
-        <v>149.0173387457617</v>
+        <v>127.927768140682</v>
       </c>
       <c r="M167" t="n">
-        <v>161.1237566843629</v>
+        <v>153.1790961464867</v>
       </c>
       <c r="N167" t="n">
-        <v>219.4698890849286</v>
+        <v>199.5729173953989</v>
       </c>
       <c r="O167" t="n">
         <v>197.7173317929186</v>
@@ -8662,10 +8662,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E168" t="n">
-        <v>421054.7496531779</v>
+        <v>421086.0870086673</v>
       </c>
       <c r="F168" t="n">
-        <v>7573978.710913791</v>
+        <v>7573998.950832053</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8685,13 +8685,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L168" t="n">
-        <v>-163.9917077283608</v>
+        <v>-132.6543522389838</v>
       </c>
       <c r="M168" t="n">
-        <v>168.2312562353909</v>
+        <v>188.4711744971573</v>
       </c>
       <c r="N168" t="n">
-        <v>234.9362376863175</v>
+        <v>230.4746423888805</v>
       </c>
       <c r="O168" t="n">
         <v>197.7173317929186</v>
@@ -8711,10 +8711,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E169" t="n">
-        <v>422268.945050641</v>
+        <v>421830.8629548632</v>
       </c>
       <c r="F169" t="n">
-        <v>7573895.994071164</v>
+        <v>7573927.061402741</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8734,13 +8734,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L169" t="n">
-        <v>1046.026238592283</v>
+        <v>607.9441428144928</v>
       </c>
       <c r="M169" t="n">
-        <v>-112.7611075323075</v>
+        <v>-81.69377595558763</v>
       </c>
       <c r="N169" t="n">
-        <v>1052.086478952863</v>
+        <v>613.4084722371629</v>
       </c>
       <c r="O169" t="n">
         <v>95.67978391929492</v>
@@ -8760,10 +8760,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E170" t="n">
-        <v>422310.44116453</v>
+        <v>421784.1897396588</v>
       </c>
       <c r="F170" t="n">
-        <v>7573909.309956684</v>
+        <v>7573940.746569478</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8783,13 +8783,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L170" t="n">
-        <v>1087.522352481261</v>
+        <v>561.2709276100504</v>
       </c>
       <c r="M170" t="n">
-        <v>-99.44522201269865</v>
+        <v>-68.00860921852291</v>
       </c>
       <c r="N170" t="n">
-        <v>1092.059622606537</v>
+        <v>565.3761801739478</v>
       </c>
       <c r="O170" t="n">
         <v>95.67978391929492</v>
@@ -8809,10 +8809,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E171" t="n">
-        <v>422259.1767469897</v>
+        <v>421880.979681965</v>
       </c>
       <c r="F171" t="n">
-        <v>7573817.177686098</v>
+        <v>7573891.021448564</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8832,13 +8832,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L171" t="n">
-        <v>1036.257934940921</v>
+        <v>658.0608699162258</v>
       </c>
       <c r="M171" t="n">
-        <v>-191.5774925984442</v>
+        <v>-117.7337301326916</v>
       </c>
       <c r="N171" t="n">
-        <v>1053.818031444864</v>
+        <v>668.5097902991828</v>
       </c>
       <c r="O171" t="n">
         <v>95.67978391929492</v>
@@ -8858,10 +8858,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E172" t="n">
-        <v>422092.9121612174</v>
+        <v>421891.5853770011</v>
       </c>
       <c r="F172" t="n">
-        <v>7573807.874106081</v>
+        <v>7573868.282682818</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8881,13 +8881,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L172" t="n">
-        <v>869.9933491686825</v>
+        <v>668.6665649524075</v>
       </c>
       <c r="M172" t="n">
-        <v>-200.8810726152733</v>
+        <v>-140.4724958781153</v>
       </c>
       <c r="N172" t="n">
-        <v>892.8838854704478</v>
+        <v>683.2623926307369</v>
       </c>
       <c r="O172" t="n">
         <v>95.67978391929492</v>
@@ -8907,10 +8907,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E173" t="n">
-        <v>421042.3576322732</v>
+        <v>421128.6966601164</v>
       </c>
       <c r="F173" t="n">
-        <v>7573973.399130221</v>
+        <v>7574016.88253753</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8930,13 +8930,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L173" t="n">
-        <v>-26.69405829312745</v>
+        <v>59.6449695500778</v>
       </c>
       <c r="M173" t="n">
-        <v>8.913195800036192</v>
+        <v>52.39660310838372</v>
       </c>
       <c r="N173" t="n">
-        <v>28.14281093861574</v>
+        <v>79.39097184143291</v>
       </c>
       <c r="O173" t="n">
         <v>64.73873093680069</v>
@@ -8956,10 +8956,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E174" t="n">
-        <v>421118.5312206227</v>
+        <v>421091.159211348</v>
       </c>
       <c r="F174" t="n">
-        <v>7573972.078122561</v>
+        <v>7573990.668929481</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8979,13 +8979,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L174" t="n">
-        <v>49.47953005635645</v>
+        <v>22.10752078163205</v>
       </c>
       <c r="M174" t="n">
-        <v>7.59218813944608</v>
+        <v>26.18299505952746</v>
       </c>
       <c r="N174" t="n">
-        <v>50.05861779296975</v>
+        <v>34.26793990594609</v>
       </c>
       <c r="O174" t="n">
         <v>64.73873093680069</v>
@@ -9005,10 +9005,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E175" t="n">
-        <v>421151.8093807214</v>
+        <v>421226.5636803023</v>
       </c>
       <c r="F175" t="n">
-        <v>7573794.622412371</v>
+        <v>7573810.425468907</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9028,13 +9028,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L175" t="n">
-        <v>37.03971778781852</v>
+        <v>111.7940173686948</v>
       </c>
       <c r="M175" t="n">
-        <v>113.7307580886409</v>
+        <v>129.5338146239519</v>
       </c>
       <c r="N175" t="n">
-        <v>119.610309042399</v>
+        <v>171.1049720214593</v>
       </c>
       <c r="O175" t="n">
         <v>306.5054328387463</v>
@@ -9054,10 +9054,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E176" t="n">
-        <v>422006.1291523939</v>
+        <v>421629.7687611721</v>
       </c>
       <c r="F176" t="n">
-        <v>7573865.9017232</v>
+        <v>7573905.805391672</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9077,13 +9077,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L176" t="n">
-        <v>891.3594894603011</v>
+        <v>514.9990982385352</v>
       </c>
       <c r="M176" t="n">
-        <v>185.010068917647</v>
+        <v>224.913737389259</v>
       </c>
       <c r="N176" t="n">
-        <v>910.3573282243852</v>
+        <v>561.9699818076665</v>
       </c>
       <c r="O176" t="n">
         <v>306.5054328387463</v>
@@ -9103,10 +9103,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E177" t="n">
-        <v>421181.2306826392</v>
+        <v>421275.7745741383</v>
       </c>
       <c r="F177" t="n">
-        <v>7573810.70688908</v>
+        <v>7573806.817798667</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9126,13 +9126,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L177" t="n">
-        <v>66.46101970557356</v>
+        <v>161.0049112046836</v>
       </c>
       <c r="M177" t="n">
-        <v>129.8152347970754</v>
+        <v>125.9261443838477</v>
       </c>
       <c r="N177" t="n">
-        <v>145.8391659525124</v>
+        <v>204.4015050615081</v>
       </c>
       <c r="O177" t="n">
         <v>306.5054328387463</v>
